--- a/raw_data/20200818_saline/20200818_Sensor3_Test_65.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_65.xlsx
@@ -1,703 +1,1119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006EA358-7D91-4652-B9B3-77E94D6DE659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>58160.109282</v>
+        <v>58160.109281999998</v>
       </c>
       <c r="B2" s="1">
         <v>16.155586</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.250000</v>
+        <v>1149.25</v>
       </c>
       <c r="D2" s="1">
-        <v>-255.137000</v>
+        <v>-255.137</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>58170.145333</v>
       </c>
       <c r="G2" s="1">
-        <v>16.158374</v>
+        <v>16.158373999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1169.780000</v>
+        <v>1169.78</v>
       </c>
       <c r="I2" s="1">
-        <v>-214.034000</v>
+        <v>-214.03399999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>58180.609969</v>
+        <v>58180.609968999997</v>
       </c>
       <c r="L2" s="1">
-        <v>16.161281</v>
+        <v>16.161280999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.870000</v>
+        <v>1195.8699999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.642000</v>
+        <v>-148.642</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>58191.169291</v>
+        <v>58191.169290999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>16.164214</v>
+        <v>16.164214000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1203.540000</v>
+        <v>1203.54</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.054000</v>
+        <v>-127.054</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>58201.750412</v>
+        <v>58201.750412000001</v>
       </c>
       <c r="V2" s="1">
-        <v>16.167153</v>
+        <v>16.167152999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1210.790000</v>
+        <v>1210.79</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.559000</v>
+        <v>-106.559</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>58212.184782</v>
+        <v>58212.184781999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>16.170051</v>
+        <v>16.170051000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1218.070000</v>
+        <v>1218.07</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.024200</v>
+        <v>-90.024199999999993</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>58222.768384</v>
+        <v>58222.768384000003</v>
       </c>
       <c r="AF2" s="1">
         <v>16.172991</v>
       </c>
       <c r="AG2" s="1">
-        <v>1222.600000</v>
+        <v>1222.5999999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.813500</v>
+        <v>-85.813500000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>58233.211155</v>
+        <v>58233.211154999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.175892</v>
+        <v>16.175892000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1229.590000</v>
+        <v>1229.5899999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.456300</v>
+        <v>-89.456299999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>58244.095860</v>
+        <v>58244.095860000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.178916</v>
+        <v>16.178916000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.638000</v>
+        <v>-101.63800000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>58255.142757</v>
+        <v>58255.142757000001</v>
       </c>
       <c r="AU2" s="1">
         <v>16.181984</v>
       </c>
       <c r="AV2" s="1">
-        <v>1247.530000</v>
+        <v>1247.53</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.334000</v>
+        <v>-121.334</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>58266.241735</v>
+        <v>58266.241735000003</v>
       </c>
       <c r="AZ2" s="1">
         <v>16.185067</v>
       </c>
       <c r="BA2" s="1">
-        <v>1255.990000</v>
+        <v>1255.99</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.083000</v>
+        <v>-139.083</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>58277.626942</v>
+        <v>58277.626942000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>16.188230</v>
+        <v>16.188230000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1296.660000</v>
+        <v>1296.6600000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.822000</v>
+        <v>-221.822</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>58288.977354</v>
+        <v>58288.977354000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>16.191383</v>
+        <v>16.191382999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1367.440000</v>
+        <v>1367.44</v>
       </c>
       <c r="BL2" s="1">
-        <v>-358.986000</v>
+        <v>-358.98599999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>58300.415595</v>
+        <v>58300.415594999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.194560</v>
+        <v>16.194559999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1483.860000</v>
+        <v>1483.86</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-581.212000</v>
+        <v>-581.21199999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>58311.672330</v>
+        <v>58311.672330000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.197687</v>
+        <v>16.197686999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1617.590000</v>
+        <v>1617.59</v>
       </c>
       <c r="BV2" s="1">
-        <v>-830.578000</v>
+        <v>-830.57799999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>58322.816907</v>
@@ -706,120 +1122,120 @@
         <v>16.200782</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1772.020000</v>
+        <v>1772.02</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1101.600000</v>
+        <v>-1101.5999999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>58333.809245</v>
+        <v>58333.809244999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>16.203836</v>
+        <v>16.203835999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2194.480000</v>
+        <v>2194.48</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1754.290000</v>
+        <v>-1754.29</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>58160.540306</v>
+        <v>58160.540306000003</v>
       </c>
       <c r="B3" s="1">
-        <v>16.155706</v>
+        <v>16.155705999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1149.300000</v>
+        <v>1149.3</v>
       </c>
       <c r="D3" s="1">
-        <v>-255.085000</v>
+        <v>-255.08500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>58170.611573</v>
+        <v>58170.611573000002</v>
       </c>
       <c r="G3" s="1">
         <v>16.158503</v>
       </c>
       <c r="H3" s="1">
-        <v>1169.310000</v>
+        <v>1169.31</v>
       </c>
       <c r="I3" s="1">
-        <v>-214.074000</v>
+        <v>-214.07400000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>58181.023095</v>
+        <v>58181.023094999997</v>
       </c>
       <c r="L3" s="1">
-        <v>16.161395</v>
+        <v>16.161394999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1196.090000</v>
+        <v>1196.0899999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-148.598000</v>
+        <v>-148.59800000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>58191.553657</v>
+        <v>58191.553656999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>16.164320</v>
+        <v>16.16432</v>
       </c>
       <c r="R3" s="1">
-        <v>1203.580000</v>
+        <v>1203.58</v>
       </c>
       <c r="S3" s="1">
-        <v>-126.955000</v>
+        <v>-126.955</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>58202.116987</v>
+        <v>58202.116987000001</v>
       </c>
       <c r="V3" s="1">
-        <v>16.167255</v>
+        <v>16.167255000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1210.590000</v>
+        <v>1210.5899999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.481000</v>
+        <v>-106.48099999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>58212.576591</v>
+        <v>58212.576590999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.170160</v>
+        <v>16.170159999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1218.030000</v>
+        <v>1218.03</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.986900</v>
+        <v>-89.986900000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>58223.476251</v>
@@ -828,2251 +1244,2251 @@
         <v>16.173188</v>
       </c>
       <c r="AG3" s="1">
-        <v>1222.450000</v>
+        <v>1222.45</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.835400</v>
+        <v>-85.835400000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>58233.937297</v>
+        <v>58233.937296999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.176094</v>
+        <v>16.176093999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.399200</v>
+        <v>-89.399199999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>58244.491034</v>
+        <v>58244.491033999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.179025</v>
+        <v>16.179024999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.638000</v>
+        <v>-101.63800000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>58255.506597</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.182085</v>
+        <v>16.182085000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1247.510000</v>
+        <v>1247.51</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.329000</v>
+        <v>-121.32899999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>58266.630134</v>
+        <v>58266.630133999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>16.185175</v>
+        <v>16.185175000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1256.030000</v>
+        <v>1256.03</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.062000</v>
+        <v>-139.06200000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>58278.334198</v>
+        <v>58278.334197999997</v>
       </c>
       <c r="BE3" s="1">
         <v>16.188426</v>
       </c>
       <c r="BF3" s="1">
-        <v>1296.610000</v>
+        <v>1296.6099999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.796000</v>
+        <v>-221.79599999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>58289.429240</v>
+        <v>58289.429239999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>16.191508</v>
+        <v>16.191507999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1367.420000</v>
+        <v>1367.42</v>
       </c>
       <c r="BL3" s="1">
-        <v>-358.984000</v>
+        <v>-358.98399999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>58300.914114</v>
+        <v>58300.914113999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>16.194698</v>
+        <v>16.194697999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1483.790000</v>
+        <v>1483.79</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-581.213000</v>
+        <v>-581.21299999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>58312.103354</v>
+        <v>58312.103353999999</v>
       </c>
       <c r="BT3" s="1">
         <v>16.197806</v>
       </c>
       <c r="BU3" s="1">
-        <v>1617.500000</v>
+        <v>1617.5</v>
       </c>
       <c r="BV3" s="1">
-        <v>-830.670000</v>
+        <v>-830.67</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>58323.302491</v>
+        <v>58323.302491000002</v>
       </c>
       <c r="BY3" s="1">
         <v>16.200917</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1772.140000</v>
+        <v>1772.14</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1101.650000</v>
+        <v>-1101.6500000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>58334.407422</v>
+        <v>58334.407421999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>16.204002</v>
+        <v>16.204001999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2192.430000</v>
+        <v>2192.4299999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1753.920000</v>
+        <v>-1753.92</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>58160.809137</v>
+        <v>58160.809136999997</v>
       </c>
       <c r="B4" s="1">
-        <v>16.155780</v>
+        <v>16.15578</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.250000</v>
+        <v>1149.25</v>
       </c>
       <c r="D4" s="1">
-        <v>-255.027000</v>
+        <v>-255.02699999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>58170.902266</v>
+        <v>58170.902265999997</v>
       </c>
       <c r="G4" s="1">
-        <v>16.158584</v>
+        <v>16.158584000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1169.520000</v>
+        <v>1169.52</v>
       </c>
       <c r="I4" s="1">
-        <v>-213.954000</v>
+        <v>-213.95400000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>58181.370790</v>
+        <v>58181.370790000001</v>
       </c>
       <c r="L4" s="1">
-        <v>16.161492</v>
+        <v>16.161491999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1196.100000</v>
+        <v>1196.0999999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.704000</v>
+        <v>-148.70400000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>58191.906312</v>
+        <v>58191.906311999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>16.164418</v>
+        <v>16.164418000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1203.630000</v>
+        <v>1203.6300000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.026000</v>
+        <v>-127.026</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>58202.462171</v>
+        <v>58202.462170999999</v>
       </c>
       <c r="V4" s="1">
         <v>16.167351</v>
       </c>
       <c r="W4" s="1">
-        <v>1210.790000</v>
+        <v>1210.79</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.555000</v>
+        <v>-106.55500000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>58213.274001</v>
+        <v>58213.274000999998</v>
       </c>
       <c r="AA4" s="1">
         <v>16.170354</v>
       </c>
       <c r="AB4" s="1">
-        <v>1218.020000</v>
+        <v>1218.02</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.942700</v>
+        <v>-89.942700000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>58223.818912</v>
+        <v>58223.818912000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>16.173283</v>
+        <v>16.173283000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1222.560000</v>
+        <v>1222.56</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.788200</v>
+        <v>-85.788200000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>58234.287504</v>
       </c>
       <c r="AK4" s="1">
-        <v>16.176191</v>
+        <v>16.176190999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1229.600000</v>
+        <v>1229.5999999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.428400</v>
+        <v>-89.428399999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>58244.868163</v>
+        <v>58244.868162999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.179130</v>
+        <v>16.179130000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.678000</v>
+        <v>-101.678</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>58256.179923</v>
+        <v>58256.179923000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.182272</v>
+        <v>16.182272000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1247.500000</v>
+        <v>1247.5</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.342000</v>
+        <v>-121.342</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>58267.303701</v>
+        <v>58267.303700999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>16.185362</v>
+        <v>16.185362000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.059000</v>
+        <v>-139.059</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>58278.737942</v>
       </c>
       <c r="BE4" s="1">
-        <v>16.188538</v>
+        <v>16.188538000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1296.630000</v>
+        <v>1296.6300000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.775000</v>
+        <v>-221.77500000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>58289.828519</v>
+        <v>58289.828519000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>16.191619</v>
+        <v>16.191618999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1367.460000</v>
+        <v>1367.46</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.006000</v>
+        <v>-359.00599999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>58301.332201</v>
+        <v>58301.332200999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>16.194815</v>
+        <v>16.194814999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1483.840000</v>
+        <v>1483.84</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-581.266000</v>
+        <v>-581.26599999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>58312.542778</v>
+        <v>58312.542778000003</v>
       </c>
       <c r="BT4" s="1">
-        <v>16.197929</v>
+        <v>16.197928999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1617.550000</v>
+        <v>1617.55</v>
       </c>
       <c r="BV4" s="1">
-        <v>-830.752000</v>
+        <v>-830.75199999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>58323.753356</v>
+        <v>58323.753356000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.201043</v>
+        <v>16.201042999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1772.000000</v>
+        <v>1772</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1101.640000</v>
+        <v>-1101.6400000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>58334.934700</v>
+        <v>58334.934699999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>16.204149</v>
+        <v>16.204149000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2193.590000</v>
+        <v>2193.59</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1755.850000</v>
+        <v>-1755.85</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>58161.145921</v>
+        <v>58161.145921000003</v>
       </c>
       <c r="B5" s="1">
-        <v>16.155874</v>
+        <v>16.155874000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1149.220000</v>
+        <v>1149.22</v>
       </c>
       <c r="D5" s="1">
-        <v>-254.952000</v>
+        <v>-254.952</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>58171.246452</v>
+        <v>58171.246451999999</v>
       </c>
       <c r="G5" s="1">
-        <v>16.158680</v>
+        <v>16.15868</v>
       </c>
       <c r="H5" s="1">
-        <v>1169.550000</v>
+        <v>1169.55</v>
       </c>
       <c r="I5" s="1">
-        <v>-214.336000</v>
+        <v>-214.33600000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>58181.712534</v>
+        <v>58181.712533999998</v>
       </c>
       <c r="L5" s="1">
-        <v>16.161587</v>
+        <v>16.161587000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1195.810000</v>
+        <v>1195.81</v>
       </c>
       <c r="N5" s="1">
-        <v>-148.680000</v>
+        <v>-148.68</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>58192.600713</v>
       </c>
       <c r="Q5" s="1">
-        <v>16.164611</v>
+        <v>16.164611000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1203.580000</v>
+        <v>1203.58</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.035000</v>
+        <v>-127.035</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>58203.147642</v>
+        <v>58203.147642000004</v>
       </c>
       <c r="V5" s="1">
         <v>16.167541</v>
       </c>
       <c r="W5" s="1">
-        <v>1210.690000</v>
+        <v>1210.69</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.501000</v>
+        <v>-106.501</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>58213.618224</v>
+        <v>58213.618223999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>16.170450</v>
+        <v>16.170449999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1218.020000</v>
+        <v>1218.02</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.032400</v>
+        <v>-90.032399999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>58224.168095</v>
+        <v>58224.168095000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>16.173380</v>
+        <v>16.173380000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>1222.560000</v>
+        <v>1222.56</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.811500</v>
+        <v>-85.811499999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>58234.635664</v>
+        <v>58234.635664000001</v>
       </c>
       <c r="AK5" s="1">
         <v>16.176288</v>
       </c>
       <c r="AL5" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.449100</v>
+        <v>-89.449100000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>58245.538723</v>
+        <v>58245.538722999998</v>
       </c>
       <c r="AP5" s="1">
         <v>16.179316</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.677000</v>
+        <v>-101.67700000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>58256.625795</v>
       </c>
       <c r="AU5" s="1">
-        <v>16.182396</v>
+        <v>16.182396000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1247.490000</v>
+        <v>1247.49</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.338000</v>
+        <v>-121.33799999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>58267.739156</v>
+        <v>58267.739156000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>16.185483</v>
+        <v>16.185483000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1255.990000</v>
+        <v>1255.99</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.057000</v>
+        <v>-139.05699999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>58279.100517</v>
+        <v>58279.100516999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.188639</v>
+        <v>16.188638999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1296.610000</v>
+        <v>1296.6099999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.818000</v>
+        <v>-221.81800000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>58290.209416</v>
+        <v>58290.209415999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>16.191725</v>
+        <v>16.191725000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1367.430000</v>
+        <v>1367.43</v>
       </c>
       <c r="BL5" s="1">
-        <v>-358.960000</v>
+        <v>-358.96</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>58301.981465</v>
+        <v>58301.981464999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>16.194995</v>
+        <v>16.194994999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1483.840000</v>
+        <v>1483.84</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-581.228000</v>
+        <v>-581.22799999999995</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>58312.973336</v>
+        <v>58312.973336000003</v>
       </c>
       <c r="BT5" s="1">
         <v>16.198048</v>
       </c>
       <c r="BU5" s="1">
-        <v>1617.370000</v>
+        <v>1617.37</v>
       </c>
       <c r="BV5" s="1">
-        <v>-830.814000</v>
+        <v>-830.81399999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>58324.174955</v>
+        <v>58324.174955000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>16.201160</v>
+        <v>16.201160000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1772.220000</v>
+        <v>1772.22</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1101.580000</v>
+        <v>-1101.58</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>58335.475307</v>
+        <v>58335.475307000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>16.204299</v>
+        <v>16.204298999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2193.620000</v>
+        <v>2193.62</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1753.250000</v>
+        <v>-1753.25</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>58161.486674</v>
       </c>
       <c r="B6" s="1">
-        <v>16.155969</v>
+        <v>16.155968999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1149.190000</v>
+        <v>1149.19</v>
       </c>
       <c r="D6" s="1">
-        <v>-255.191000</v>
+        <v>-255.191</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>58171.935428</v>
+        <v>58171.935427999997</v>
       </c>
       <c r="G6" s="1">
-        <v>16.158871</v>
+        <v>16.158871000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1169.540000</v>
+        <v>1169.54</v>
       </c>
       <c r="I6" s="1">
-        <v>-213.727000</v>
+        <v>-213.727</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>58182.405941</v>
+        <v>58182.405940999997</v>
       </c>
       <c r="L6" s="1">
-        <v>16.161779</v>
+        <v>16.161778999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1196.010000</v>
+        <v>1196.01</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.677000</v>
+        <v>-148.67699999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>58192.950391</v>
+        <v>58192.950390999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.164708</v>
+        <v>16.164708000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1203.620000</v>
+        <v>1203.6199999999999</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.044000</v>
+        <v>-127.044</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>58203.496329</v>
+        <v>58203.496329000001</v>
       </c>
       <c r="V6" s="1">
         <v>16.167638</v>
       </c>
       <c r="W6" s="1">
-        <v>1210.610000</v>
+        <v>1210.6099999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.500000</v>
+        <v>-106.5</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>58213.968861</v>
+        <v>58213.968861000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.170547</v>
+        <v>16.170546999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1217.970000</v>
+        <v>1217.97</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.013600</v>
+        <v>-90.013599999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>58224.836238</v>
+        <v>58224.836238000004</v>
       </c>
       <c r="AF6" s="1">
-        <v>16.173566</v>
+        <v>16.173566000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1222.560000</v>
+        <v>1222.56</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.835300</v>
+        <v>-85.835300000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>58235.312703</v>
+        <v>58235.312703000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>16.176476</v>
+        <v>16.176476000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.431200</v>
+        <v>-89.431200000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>58245.952913</v>
+        <v>58245.952913000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>16.179431</v>
+        <v>16.179431000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.670000</v>
+        <v>-101.67</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>58256.991875</v>
       </c>
       <c r="AU6" s="1">
-        <v>16.182498</v>
+        <v>16.182497999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1247.510000</v>
+        <v>1247.51</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.342000</v>
+        <v>-121.342</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>58268.101732</v>
+        <v>58268.101732000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>16.185584</v>
+        <v>16.185583999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.056000</v>
+        <v>-139.05600000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>58279.459622</v>
+        <v>58279.459622000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>16.188739</v>
+        <v>16.188739000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1296.640000</v>
+        <v>1296.6400000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.794000</v>
+        <v>-221.79400000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>58290.637497</v>
+        <v>58290.637497000003</v>
       </c>
       <c r="BJ6" s="1">
         <v>16.191844</v>
       </c>
       <c r="BK6" s="1">
-        <v>1367.430000</v>
+        <v>1367.43</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.013000</v>
+        <v>-359.01299999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>58302.148120</v>
+        <v>58302.148119999998</v>
       </c>
       <c r="BO6" s="1">
         <v>16.195041</v>
       </c>
       <c r="BP6" s="1">
-        <v>1483.820000</v>
+        <v>1483.82</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-581.236000</v>
+        <v>-581.23599999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>58313.381053</v>
+        <v>58313.381052999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>16.198161</v>
+        <v>16.198160999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1617.400000</v>
+        <v>1617.4</v>
       </c>
       <c r="BV6" s="1">
-        <v>-830.928000</v>
+        <v>-830.928</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>58324.617168</v>
+        <v>58324.617167999997</v>
       </c>
       <c r="BY6" s="1">
         <v>16.201283</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1771.970000</v>
+        <v>1771.97</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1101.610000</v>
+        <v>-1101.6099999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>58336.012970</v>
+        <v>58336.012970000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>16.204448</v>
+        <v>16.204447999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2192.170000</v>
+        <v>2192.17</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1755.440000</v>
+        <v>-1755.44</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>58162.168210</v>
+        <v>58162.168210000003</v>
       </c>
       <c r="B7" s="1">
-        <v>16.156158</v>
+        <v>16.156158000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.190000</v>
+        <v>1149.19</v>
       </c>
       <c r="D7" s="1">
-        <v>-255.046000</v>
+        <v>-255.04599999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>58172.281120</v>
+        <v>58172.28112</v>
       </c>
       <c r="G7" s="1">
-        <v>16.158967</v>
+        <v>16.158967000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1170.090000</v>
+        <v>1170.0899999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-214.182000</v>
+        <v>-214.18199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>58182.750662</v>
+        <v>58182.750661999999</v>
       </c>
       <c r="L7" s="1">
-        <v>16.161875</v>
+        <v>16.161874999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1196.220000</v>
+        <v>1196.22</v>
       </c>
       <c r="N7" s="1">
-        <v>-148.767000</v>
+        <v>-148.767</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>58193.301560</v>
+        <v>58193.30156</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.164806</v>
+        <v>16.164805999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1203.560000</v>
+        <v>1203.56</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.018000</v>
+        <v>-127.018</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>58204.148569</v>
+        <v>58204.148568999997</v>
       </c>
       <c r="V7" s="1">
-        <v>16.167819</v>
+        <v>16.167819000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1210.580000</v>
+        <v>1210.58</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.664000</v>
+        <v>-106.664</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>58214.633499</v>
+        <v>58214.633499000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.170732</v>
+        <v>16.170732000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1218.000000</v>
+        <v>1218</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.952900</v>
+        <v>-89.9529</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>58225.200766</v>
+        <v>58225.200766000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>16.173667</v>
+        <v>16.173666999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1222.650000</v>
+        <v>1222.6500000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.822100</v>
+        <v>-85.822100000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>58235.679744</v>
+        <v>58235.679744000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>16.176578</v>
+        <v>16.176577999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.460200</v>
+        <v>-89.4602</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>58246.342770</v>
+        <v>58246.342770000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>16.179540</v>
+        <v>16.179539999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.666000</v>
+        <v>-101.666</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>58257.352963</v>
+        <v>58257.352962999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.182598</v>
+        <v>16.182597999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1247.530000</v>
+        <v>1247.53</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.329000</v>
+        <v>-121.32899999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>58268.456868</v>
+        <v>58268.456868000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>16.185682</v>
       </c>
       <c r="BA7" s="1">
-        <v>1256.010000</v>
+        <v>1256.01</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.033000</v>
+        <v>-139.03299999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>58279.887180</v>
+        <v>58279.887179999998</v>
       </c>
       <c r="BE7" s="1">
         <v>16.188858</v>
       </c>
       <c r="BF7" s="1">
-        <v>1296.610000</v>
+        <v>1296.6099999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.787000</v>
+        <v>-221.78700000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>58290.961350</v>
+        <v>58290.961349999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>16.191934</v>
       </c>
       <c r="BK7" s="1">
-        <v>1367.460000</v>
+        <v>1367.46</v>
       </c>
       <c r="BL7" s="1">
-        <v>-358.984000</v>
+        <v>-358.98399999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>58302.545942</v>
+        <v>58302.545941999997</v>
       </c>
       <c r="BO7" s="1">
         <v>16.195152</v>
       </c>
       <c r="BP7" s="1">
-        <v>1483.840000</v>
+        <v>1483.84</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-581.228000</v>
+        <v>-581.22799999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>58313.824937</v>
+        <v>58313.824936999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>16.198285</v>
+        <v>16.198284999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1617.370000</v>
+        <v>1617.37</v>
       </c>
       <c r="BV7" s="1">
-        <v>-830.975000</v>
+        <v>-830.97500000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>58325.048445</v>
       </c>
       <c r="BY7" s="1">
-        <v>16.201402</v>
+        <v>16.201402000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1772.070000</v>
+        <v>1772.07</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1101.640000</v>
+        <v>-1101.6400000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>58336.553114</v>
+        <v>58336.553114000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>16.204598</v>
+        <v>16.204598000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2194.570000</v>
+        <v>2194.5700000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1754.090000</v>
+        <v>-1754.09</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>58162.513887</v>
+        <v>58162.513887000001</v>
       </c>
       <c r="B8" s="1">
-        <v>16.156254</v>
+        <v>16.156254000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.280000</v>
+        <v>1149.28</v>
       </c>
       <c r="D8" s="1">
-        <v>-255.055000</v>
+        <v>-255.05500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>58172.624338</v>
+        <v>58172.624338000001</v>
       </c>
       <c r="G8" s="1">
-        <v>16.159062</v>
+        <v>16.159061999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1170.230000</v>
+        <v>1170.23</v>
       </c>
       <c r="I8" s="1">
-        <v>-213.876000</v>
+        <v>-213.876</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>58183.096374</v>
+        <v>58183.096374000001</v>
       </c>
       <c r="L8" s="1">
-        <v>16.161971</v>
+        <v>16.161971000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1196.180000</v>
+        <v>1196.18</v>
       </c>
       <c r="N8" s="1">
-        <v>-148.821000</v>
+        <v>-148.821</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>58193.962079</v>
+        <v>58193.962078999997</v>
       </c>
       <c r="Q8" s="1">
-        <v>16.164989</v>
+        <v>16.164988999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>1203.650000</v>
+        <v>1203.6500000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-126.911000</v>
+        <v>-126.911</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>58204.524055</v>
+        <v>58204.524055000002</v>
       </c>
       <c r="V8" s="1">
-        <v>16.167923</v>
+        <v>16.167922999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>1210.880000</v>
+        <v>1210.8800000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.527000</v>
+        <v>-106.527</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>58215.017935</v>
+        <v>58215.017935000003</v>
       </c>
       <c r="AA8" s="1">
         <v>16.170838</v>
       </c>
       <c r="AB8" s="1">
-        <v>1217.990000</v>
+        <v>1217.99</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.187000</v>
+        <v>-90.186999999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>58225.549452</v>
+        <v>58225.549451999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>16.173764</v>
+        <v>16.173763999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1222.590000</v>
+        <v>1222.5899999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.676200</v>
+        <v>-85.676199999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>58236.029919</v>
+        <v>58236.029919000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>16.176675</v>
+        <v>16.176674999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1229.640000</v>
+        <v>1229.6400000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.438300</v>
+        <v>-89.438299999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>58246.701376</v>
+        <v>58246.701375999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>16.179639</v>
+        <v>16.179639000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.671000</v>
+        <v>-101.67100000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>58257.787922</v>
+        <v>58257.787922000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>16.182719</v>
+        <v>16.182718999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1247.500000</v>
+        <v>1247.5</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.342000</v>
+        <v>-121.342</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>58269.174124</v>
+        <v>58269.174123999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>16.185882</v>
+        <v>16.185881999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.071000</v>
+        <v>-139.071</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>58280.182325</v>
+        <v>58280.182325000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>16.188940</v>
+        <v>16.188939999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1296.600000</v>
+        <v>1296.5999999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.800000</v>
+        <v>-221.8</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>58291.351237</v>
+        <v>58291.351237000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>16.192042</v>
+        <v>16.192042000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1367.420000</v>
+        <v>1367.42</v>
       </c>
       <c r="BL8" s="1">
-        <v>-358.995000</v>
+        <v>-358.995</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>58302.970016</v>
+        <v>58302.970015999999</v>
       </c>
       <c r="BO8" s="1">
         <v>16.195269</v>
       </c>
       <c r="BP8" s="1">
-        <v>1483.840000</v>
+        <v>1483.84</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-581.237000</v>
+        <v>-581.23699999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>58314.238631</v>
       </c>
       <c r="BT8" s="1">
-        <v>16.198400</v>
+        <v>16.198399999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1617.420000</v>
+        <v>1617.42</v>
       </c>
       <c r="BV8" s="1">
-        <v>-831.077000</v>
+        <v>-831.077</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>58325.469053</v>
+        <v>58325.469053000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>16.201519</v>
+        <v>16.201519000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1771.960000</v>
+        <v>1771.96</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1101.550000</v>
+        <v>-1101.55</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>58337.093289</v>
+        <v>58337.093288999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.204748</v>
+        <v>16.204747999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2192.240000</v>
+        <v>2192.2399999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1754.230000</v>
+        <v>-1754.23</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>58162.852160</v>
+        <v>58162.852160000002</v>
       </c>
       <c r="B9" s="1">
-        <v>16.156348</v>
+        <v>16.156348000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.270000</v>
+        <v>1149.27</v>
       </c>
       <c r="D9" s="1">
-        <v>-255.060000</v>
+        <v>-255.06</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>58173.280725</v>
+        <v>58173.280724999997</v>
       </c>
       <c r="G9" s="1">
-        <v>16.159245</v>
+        <v>16.159244999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1169.900000</v>
+        <v>1169.9000000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-214.504000</v>
+        <v>-214.50399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>58183.764980</v>
+        <v>58183.76498</v>
       </c>
       <c r="L9" s="1">
-        <v>16.162157</v>
+        <v>16.162157000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1196.160000</v>
+        <v>1196.1600000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-148.780000</v>
+        <v>-148.78</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>58194.345410</v>
+        <v>58194.345410000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.165096</v>
+        <v>16.165095999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>1203.620000</v>
+        <v>1203.6199999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.038000</v>
+        <v>-127.038</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>58204.867271</v>
+        <v>58204.867271000003</v>
       </c>
       <c r="V9" s="1">
-        <v>16.168019</v>
+        <v>16.168019000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1210.620000</v>
+        <v>1210.6199999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.603000</v>
+        <v>-106.60299999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>58215.365099</v>
+        <v>58215.365099000002</v>
       </c>
       <c r="AA9" s="1">
         <v>16.170935</v>
       </c>
       <c r="AB9" s="1">
-        <v>1218.080000</v>
+        <v>1218.08</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.982400</v>
+        <v>-89.982399999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>58225.895196</v>
+        <v>58225.895195999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>16.173860</v>
+        <v>16.173860000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1222.560000</v>
+        <v>1222.56</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.860300</v>
+        <v>-85.860299999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>58236.458462</v>
+        <v>58236.458462000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>16.176794</v>
+        <v>16.176794000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1229.670000</v>
+        <v>1229.67</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.420000</v>
+        <v>-89.42</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>58247.123441</v>
+        <v>58247.123441000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>16.179757</v>
+        <v>16.179756999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.638000</v>
+        <v>-101.63800000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>58258.085522</v>
+        <v>58258.085522000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>16.182802</v>
+        <v>16.182801999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1247.540000</v>
+        <v>1247.54</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.348000</v>
+        <v>-121.348</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>58269.532231</v>
+        <v>58269.532230999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.185981</v>
+        <v>16.185981000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.044000</v>
+        <v>-139.04400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>58280.541924</v>
+        <v>58280.541923999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>16.189039</v>
+        <v>16.189039000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1296.600000</v>
+        <v>1296.5999999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.800000</v>
+        <v>-221.8</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>58291.727705</v>
+        <v>58291.727704999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>16.192147</v>
+        <v>16.192146999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1367.410000</v>
+        <v>1367.41</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.034000</v>
+        <v>-359.03399999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>58303.380679</v>
+        <v>58303.380679000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>16.195384</v>
+        <v>16.195384000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1483.830000</v>
+        <v>1483.83</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-581.235000</v>
+        <v>-581.23500000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>58314.667980</v>
+        <v>58314.667979999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>16.198519</v>
+        <v>16.198519000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1617.540000</v>
+        <v>1617.54</v>
       </c>
       <c r="BV9" s="1">
-        <v>-831.108000</v>
+        <v>-831.10799999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>58325.892599</v>
+        <v>58325.892598999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>16.201637</v>
+        <v>16.201637000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1772.060000</v>
+        <v>1772.06</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1101.660000</v>
+        <v>-1101.6600000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>58337.631913</v>
+        <v>58337.631912999997</v>
       </c>
       <c r="CD9" s="1">
         <v>16.204898</v>
       </c>
       <c r="CE9" s="1">
-        <v>2193.770000</v>
+        <v>2193.77</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1755.620000</v>
+        <v>-1755.62</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>58163.518782</v>
+        <v>58163.518781999999</v>
       </c>
       <c r="B10" s="1">
         <v>16.156533</v>
       </c>
       <c r="C10" s="1">
-        <v>1149.090000</v>
+        <v>1149.0899999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-254.917000</v>
+        <v>-254.917</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>58173.661473</v>
       </c>
       <c r="G10" s="1">
-        <v>16.159350</v>
+        <v>16.15935</v>
       </c>
       <c r="H10" s="1">
-        <v>1169.830000</v>
+        <v>1169.83</v>
       </c>
       <c r="I10" s="1">
-        <v>-213.231000</v>
+        <v>-213.23099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>58184.137475</v>
+        <v>58184.137475000003</v>
       </c>
       <c r="L10" s="1">
-        <v>16.162260</v>
+        <v>16.16226</v>
       </c>
       <c r="M10" s="1">
-        <v>1196.120000</v>
+        <v>1196.1199999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.484000</v>
+        <v>-148.48400000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>58194.693333</v>
+        <v>58194.693333000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>16.165193</v>
+        <v>16.165192999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1203.630000</v>
+        <v>1203.6300000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-126.997000</v>
+        <v>-126.997</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>58205.210504</v>
+        <v>58205.210504000002</v>
       </c>
       <c r="V10" s="1">
-        <v>16.168114</v>
+        <v>16.168113999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1210.720000</v>
+        <v>1210.72</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.613000</v>
+        <v>-106.613</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>58215.716265</v>
+        <v>58215.716265000003</v>
       </c>
       <c r="AA10" s="1">
         <v>16.171032</v>
       </c>
       <c r="AB10" s="1">
-        <v>1218.010000</v>
+        <v>1218.01</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.009000</v>
+        <v>-90.009</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>58226.325691</v>
+        <v>58226.325690999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>16.173979</v>
+        <v>16.173978999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1222.630000</v>
+        <v>1222.6300000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.807300</v>
+        <v>-85.807299999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>58236.727293</v>
+        <v>58236.727293000004</v>
       </c>
       <c r="AK10" s="1">
         <v>16.176869</v>
       </c>
       <c r="AL10" s="1">
-        <v>1229.630000</v>
+        <v>1229.6300000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.434400</v>
+        <v>-89.434399999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>58247.421053</v>
+        <v>58247.421052999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>16.179839</v>
+        <v>16.179839000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.664000</v>
+        <v>-101.664</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>58258.451603</v>
+        <v>58258.451603000001</v>
       </c>
       <c r="AU10" s="1">
         <v>16.182903</v>
       </c>
       <c r="AV10" s="1">
-        <v>1247.500000</v>
+        <v>1247.5</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.335000</v>
+        <v>-121.33499999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>58269.892290</v>
+        <v>58269.892290000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.186081</v>
+        <v>16.186081000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1256.010000</v>
+        <v>1256.01</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.031000</v>
+        <v>-139.03100000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>58280.904973</v>
+        <v>58280.904972999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>16.189140</v>
+        <v>16.189139999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1296.620000</v>
+        <v>1296.6199999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.811000</v>
+        <v>-221.81100000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>58292.477620</v>
+        <v>58292.477619999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>16.192355</v>
+        <v>16.192354999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1367.410000</v>
+        <v>1367.41</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.009000</v>
+        <v>-359.00900000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>58303.785607</v>
+        <v>58303.785606999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>16.195496</v>
+        <v>16.195495999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1483.890000</v>
+        <v>1483.89</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-581.232000</v>
+        <v>-581.23199999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>58315.078822</v>
+        <v>58315.078822000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>16.198633</v>
+        <v>16.198633000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1617.440000</v>
+        <v>1617.44</v>
       </c>
       <c r="BV10" s="1">
-        <v>-831.245000</v>
+        <v>-831.245</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>58326.316184</v>
+        <v>58326.316184000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>16.201754</v>
+        <v>16.201754000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1771.990000</v>
+        <v>1771.99</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1101.560000</v>
+        <v>-1101.56</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>58338.489495</v>
+        <v>58338.489495000002</v>
       </c>
       <c r="CD10" s="1">
         <v>16.205136</v>
       </c>
       <c r="CE10" s="1">
-        <v>2191.780000</v>
+        <v>2191.7800000000002</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1754.720000</v>
+        <v>-1754.72</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>58163.878879</v>
+        <v>58163.878879000004</v>
       </c>
       <c r="B11" s="1">
-        <v>16.156633</v>
+        <v>16.156632999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.310000</v>
+        <v>1149.31</v>
       </c>
       <c r="D11" s="1">
-        <v>-254.983000</v>
+        <v>-254.983</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>58174.002226</v>
+        <v>58174.002225999997</v>
       </c>
       <c r="G11" s="1">
-        <v>16.159445</v>
+        <v>16.159445000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>1169.240000</v>
+        <v>1169.24</v>
       </c>
       <c r="I11" s="1">
-        <v>-213.293000</v>
+        <v>-213.29300000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>58184.480707</v>
+        <v>58184.480707000002</v>
       </c>
       <c r="L11" s="1">
-        <v>16.162356</v>
+        <v>16.162355999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1195.860000</v>
+        <v>1195.8599999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-148.712000</v>
+        <v>-148.71199999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>58195.039542</v>
+        <v>58195.039541999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>16.165289</v>
+        <v>16.165289000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1203.580000</v>
+        <v>1203.58</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.066000</v>
+        <v>-127.066</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>58205.637558</v>
+        <v>58205.637558000002</v>
       </c>
       <c r="V11" s="1">
-        <v>16.168233</v>
+        <v>16.168233000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1210.820000</v>
+        <v>1210.82</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.461000</v>
+        <v>-106.461</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>58216.148281</v>
+        <v>58216.148281000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>16.171152</v>
+        <v>16.171151999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1218.080000</v>
+        <v>1218.08</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.014200</v>
+        <v>-90.014200000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>58226.591085</v>
       </c>
       <c r="AF11" s="1">
-        <v>16.174053</v>
+        <v>16.174053000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1222.510000</v>
+        <v>1222.51</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.671000</v>
+        <v>-85.671000000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>58237.077009</v>
+        <v>58237.077009000001</v>
       </c>
       <c r="AK11" s="1">
         <v>16.176966</v>
       </c>
       <c r="AL11" s="1">
-        <v>1229.670000</v>
+        <v>1229.67</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.406300</v>
+        <v>-89.406300000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>58247.778686</v>
+        <v>58247.778685999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>16.179939</v>
+        <v>16.179939000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.644000</v>
+        <v>-101.64400000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>58258.824097</v>
+        <v>58258.824096999997</v>
       </c>
       <c r="AU11" s="1">
         <v>16.183007</v>
       </c>
       <c r="AV11" s="1">
-        <v>1247.510000</v>
+        <v>1247.51</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.333000</v>
+        <v>-121.333</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>58270.608570</v>
+        <v>58270.608569999997</v>
       </c>
       <c r="AZ11" s="1">
-        <v>16.186280</v>
+        <v>16.18628</v>
       </c>
       <c r="BA11" s="1">
-        <v>1256.020000</v>
+        <v>1256.02</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.074000</v>
+        <v>-139.07400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>58281.630610</v>
+        <v>58281.63061</v>
       </c>
       <c r="BE11" s="1">
         <v>16.189342</v>
       </c>
       <c r="BF11" s="1">
-        <v>1296.620000</v>
+        <v>1296.6199999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.796000</v>
+        <v>-221.79599999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>58292.852595</v>
+        <v>58292.852594999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>16.192459</v>
+        <v>16.192458999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1367.470000</v>
+        <v>1367.47</v>
       </c>
       <c r="BL11" s="1">
-        <v>-358.987000</v>
+        <v>-358.98700000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>58304.180228</v>
+        <v>58304.180227999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>16.195606</v>
+        <v>16.195606000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1483.800000</v>
+        <v>1483.8</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-581.252000</v>
+        <v>-581.25199999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>58315.506870</v>
+        <v>58315.506869999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>16.198752</v>
+        <v>16.198751999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1617.510000</v>
+        <v>1617.51</v>
       </c>
       <c r="BV11" s="1">
-        <v>-831.251000</v>
+        <v>-831.25099999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>58327.048278</v>
+        <v>58327.048278000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>16.201958</v>
+        <v>16.201958000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1772.010000</v>
+        <v>1772.01</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1101.520000</v>
+        <v>-1101.52</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>58338.712200</v>
+        <v>58338.712200000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.205198</v>
+        <v>16.205197999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2192.120000</v>
+        <v>2192.12</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1754.860000</v>
+        <v>-1754.86</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>58164.223597</v>
+        <v>58164.223596999997</v>
       </c>
       <c r="B12" s="1">
-        <v>16.156729</v>
+        <v>16.156728999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1149.230000</v>
+        <v>1149.23</v>
       </c>
       <c r="D12" s="1">
-        <v>-255.182000</v>
+        <v>-255.18199999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>58174.346448</v>
+        <v>58174.346447999997</v>
       </c>
       <c r="G12" s="1">
-        <v>16.159541</v>
+        <v>16.159541000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1169.670000</v>
+        <v>1169.67</v>
       </c>
       <c r="I12" s="1">
-        <v>-213.666000</v>
+        <v>-213.666</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>58184.835346</v>
@@ -3081,497 +3497,497 @@
         <v>16.162454</v>
       </c>
       <c r="M12" s="1">
-        <v>1196.330000</v>
+        <v>1196.33</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.678000</v>
+        <v>-148.678</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>58195.460680</v>
+        <v>58195.460679999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>16.165406</v>
+        <v>16.165406000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1203.520000</v>
+        <v>1203.52</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.080000</v>
+        <v>-127.08</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>58205.907382</v>
+        <v>58205.907381999998</v>
       </c>
       <c r="V12" s="1">
         <v>16.168308</v>
       </c>
       <c r="W12" s="1">
-        <v>1210.720000</v>
+        <v>1210.72</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.609000</v>
+        <v>-106.60899999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>58216.426820</v>
+        <v>58216.426820000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>16.171230</v>
+        <v>16.171230000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1218.000000</v>
+        <v>1218</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.080700</v>
+        <v>-90.080699999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>58226.934283</v>
+        <v>58226.934283000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>16.174148</v>
+        <v>16.174147999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1222.560000</v>
+        <v>1222.56</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.969800</v>
+        <v>-85.969800000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>58237.423708</v>
+        <v>58237.423708000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>16.177062</v>
+        <v>16.177061999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1229.660000</v>
+        <v>1229.6600000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.423400</v>
+        <v>-89.423400000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>58248.143712</v>
+        <v>58248.143711999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>16.180040</v>
+        <v>16.180040000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.677000</v>
+        <v>-101.67700000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>58259.542799</v>
+        <v>58259.542799000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>16.183206</v>
+        <v>16.183205999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1247.540000</v>
+        <v>1247.54</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.325000</v>
+        <v>-121.325</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>58270.993409</v>
+        <v>58270.993409000002</v>
       </c>
       <c r="AZ12" s="1">
         <v>16.186387</v>
       </c>
       <c r="BA12" s="1">
-        <v>1256.020000</v>
+        <v>1256.02</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.036000</v>
+        <v>-139.036</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>58281.987607</v>
+        <v>58281.987607000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>16.189441</v>
+        <v>16.189440999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1296.590000</v>
+        <v>1296.5899999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.815000</v>
+        <v>-221.815</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>58293.228066</v>
+        <v>58293.228066000003</v>
       </c>
       <c r="BJ12" s="1">
         <v>16.192563</v>
       </c>
       <c r="BK12" s="1">
-        <v>1367.420000</v>
+        <v>1367.42</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.012000</v>
+        <v>-359.012</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>58304.918926</v>
+        <v>58304.918925999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>16.195811</v>
+        <v>16.195810999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1483.840000</v>
+        <v>1483.84</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-581.232000</v>
+        <v>-581.23199999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>58316.223588</v>
+        <v>58316.223588000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.198951</v>
+        <v>16.198951000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1617.540000</v>
+        <v>1617.54</v>
       </c>
       <c r="BV12" s="1">
-        <v>-831.279000</v>
+        <v>-831.279</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>58327.178266</v>
+        <v>58327.178266000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>16.201994</v>
+        <v>16.201993999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1771.980000</v>
+        <v>1771.98</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1101.610000</v>
+        <v>-1101.6099999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>58339.231046</v>
+        <v>58339.231046000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>16.205342</v>
+        <v>16.205342000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>2193.820000</v>
+        <v>2193.8200000000002</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1755.160000</v>
+        <v>-1755.16</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>58164.562366</v>
+        <v>58164.562365999998</v>
       </c>
       <c r="B13" s="1">
-        <v>16.156823</v>
+        <v>16.156822999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.240000</v>
+        <v>1149.24</v>
       </c>
       <c r="D13" s="1">
-        <v>-255.235000</v>
+        <v>-255.23500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>58174.759120</v>
+        <v>58174.759120000002</v>
       </c>
       <c r="G13" s="1">
-        <v>16.159655</v>
+        <v>16.159655000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1170.340000</v>
+        <v>1170.3399999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-213.972000</v>
+        <v>-213.97200000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>58185.254961</v>
+        <v>58185.254960999999</v>
       </c>
       <c r="L13" s="1">
         <v>16.162571</v>
       </c>
       <c r="M13" s="1">
-        <v>1196.220000</v>
+        <v>1196.22</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.678000</v>
+        <v>-148.678</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>58195.738901</v>
+        <v>58195.738900999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>16.165483</v>
+        <v>16.165482999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>1203.540000</v>
+        <v>1203.54</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.035000</v>
+        <v>-127.035</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>58206.252101</v>
+        <v>58206.252100999998</v>
       </c>
       <c r="V13" s="1">
-        <v>16.168403</v>
+        <v>16.168403000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1210.730000</v>
+        <v>1210.73</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.591000</v>
+        <v>-106.59099999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>58216.774231</v>
+        <v>58216.774231000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>16.171326</v>
+        <v>16.171326000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1218.120000</v>
+        <v>1218.1199999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.969900</v>
+        <v>-89.969899999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>58227.278538</v>
+        <v>58227.278537999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>16.174244</v>
+        <v>16.174244000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>1222.560000</v>
+        <v>1222.56</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.822100</v>
+        <v>-85.822100000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>58238.123037</v>
+        <v>58238.123036999998</v>
       </c>
       <c r="AK13" s="1">
         <v>16.177256</v>
       </c>
       <c r="AL13" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.426800</v>
+        <v>-89.4268</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>58248.865422</v>
+        <v>58248.865422000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>16.180240</v>
+        <v>16.180240000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.658000</v>
+        <v>-101.658</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>58259.909808</v>
+        <v>58259.909807999997</v>
       </c>
       <c r="AU13" s="1">
         <v>16.183308</v>
       </c>
       <c r="AV13" s="1">
-        <v>1247.520000</v>
+        <v>1247.52</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.299000</v>
+        <v>-121.29900000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>58271.375855</v>
+        <v>58271.375854999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>16.186493</v>
+        <v>16.186492999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1256.010000</v>
+        <v>1256.01</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.069000</v>
+        <v>-139.06899999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>58282.350338</v>
+        <v>58282.350337999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>16.189542</v>
+        <v>16.189541999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1296.610000</v>
+        <v>1296.6099999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.779000</v>
+        <v>-221.779</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>58293.922963</v>
+        <v>58293.922962999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>16.192756</v>
+        <v>16.192755999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1367.450000</v>
+        <v>1367.45</v>
       </c>
       <c r="BL13" s="1">
-        <v>-358.981000</v>
+        <v>-358.98099999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>58305.028924</v>
+        <v>58305.028923999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>16.195841</v>
+        <v>16.195841000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1483.850000</v>
+        <v>1483.85</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-581.243000</v>
+        <v>-581.24300000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>58316.351316</v>
       </c>
       <c r="BT13" s="1">
-        <v>16.198986</v>
+        <v>16.198986000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1617.560000</v>
+        <v>1617.56</v>
       </c>
       <c r="BV13" s="1">
-        <v>-831.383000</v>
+        <v>-831.38300000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>58327.600168</v>
+        <v>58327.600167999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>16.202111</v>
+        <v>16.202110999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1772.120000</v>
+        <v>1772.12</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1101.590000</v>
+        <v>-1101.5899999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>58339.751846</v>
+        <v>58339.751845999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.205487</v>
+        <v>16.205487000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>2193.040000</v>
+        <v>2193.04</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1755.930000</v>
+        <v>-1755.93</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>58164.989453</v>
+        <v>58164.989453000002</v>
       </c>
       <c r="B14" s="1">
-        <v>16.156942</v>
+        <v>16.156942000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.170000</v>
+        <v>1149.17</v>
       </c>
       <c r="D14" s="1">
-        <v>-254.926000</v>
+        <v>-254.92599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>58175.052291</v>
@@ -3580,707 +3996,707 @@
         <v>16.159737</v>
       </c>
       <c r="H14" s="1">
-        <v>1169.650000</v>
+        <v>1169.6500000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-213.331000</v>
+        <v>-213.33099999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>58185.534210</v>
+        <v>58185.534209999998</v>
       </c>
       <c r="L14" s="1">
-        <v>16.162648</v>
+        <v>16.162648000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1196.060000</v>
+        <v>1196.06</v>
       </c>
       <c r="N14" s="1">
-        <v>-148.858000</v>
+        <v>-148.858</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>58196.090563</v>
+        <v>58196.090562999998</v>
       </c>
       <c r="Q14" s="1">
         <v>16.165581</v>
       </c>
       <c r="R14" s="1">
-        <v>1203.560000</v>
+        <v>1203.56</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.009000</v>
+        <v>-127.009</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>58206.596821</v>
+        <v>58206.596820999999</v>
       </c>
       <c r="V14" s="1">
-        <v>16.168499</v>
+        <v>16.168499000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1210.700000</v>
+        <v>1210.7</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.466000</v>
+        <v>-106.46599999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>58217.120936</v>
+        <v>58217.120935999999</v>
       </c>
       <c r="AA14" s="1">
         <v>16.171422</v>
       </c>
       <c r="AB14" s="1">
-        <v>1218.010000</v>
+        <v>1218.01</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.924400</v>
+        <v>-89.924400000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>58227.961529</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.174434</v>
+        <v>16.174434000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1222.700000</v>
+        <v>1222.7</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.882700</v>
+        <v>-85.8827</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>58238.470236</v>
+        <v>58238.470236000001</v>
       </c>
       <c r="AK14" s="1">
         <v>16.177353</v>
       </c>
       <c r="AL14" s="1">
-        <v>1229.670000</v>
+        <v>1229.67</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.420900</v>
+        <v>-89.420900000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>58249.224493</v>
+        <v>58249.224493000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>16.180340</v>
+        <v>16.180340000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.634000</v>
+        <v>-101.634</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>58260.272384</v>
+        <v>58260.272384000004</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.183409</v>
+        <v>16.183409000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1247.510000</v>
+        <v>1247.51</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.329000</v>
+        <v>-121.32899999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>58272.051908</v>
+        <v>58272.051908000001</v>
       </c>
       <c r="AZ14" s="1">
         <v>16.186681</v>
       </c>
       <c r="BA14" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.068000</v>
+        <v>-139.06800000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>58283.027381</v>
       </c>
       <c r="BE14" s="1">
-        <v>16.189730</v>
+        <v>16.189730000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1296.600000</v>
+        <v>1296.5999999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.781000</v>
+        <v>-221.78100000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>58294.355473</v>
+        <v>58294.355473000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.192877</v>
+        <v>16.192876999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1367.400000</v>
+        <v>1367.4</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.004000</v>
+        <v>-359.00400000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>58305.425188</v>
+        <v>58305.425188000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>16.195951</v>
+        <v>16.195951000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1483.790000</v>
+        <v>1483.79</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-581.188000</v>
+        <v>-581.18799999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>58316.788533</v>
+        <v>58316.788532999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>16.199108</v>
+        <v>16.199107999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1617.710000</v>
+        <v>1617.71</v>
       </c>
       <c r="BV14" s="1">
-        <v>-831.367000</v>
+        <v>-831.36699999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>58328.023909</v>
+        <v>58328.023909000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>16.202229</v>
+        <v>16.202228999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1771.920000</v>
+        <v>1771.92</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1101.500000</v>
+        <v>-1101.5</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>58340.300886</v>
+        <v>58340.300885999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>16.205639</v>
+        <v>16.205639000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2192.230000</v>
+        <v>2192.23</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1754.910000</v>
+        <v>-1754.91</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>58165.265206</v>
+        <v>58165.265205999996</v>
       </c>
       <c r="B15" s="1">
-        <v>16.157018</v>
+        <v>16.157018000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.340000</v>
+        <v>1149.3399999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-255.221000</v>
+        <v>-255.221</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>58175.397472</v>
+        <v>58175.397471999997</v>
       </c>
       <c r="G15" s="1">
-        <v>16.159833</v>
+        <v>16.159832999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1169.930000</v>
+        <v>1169.93</v>
       </c>
       <c r="I15" s="1">
-        <v>-213.850000</v>
+        <v>-213.85</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>58185.882896</v>
+        <v>58185.882896000003</v>
       </c>
       <c r="L15" s="1">
-        <v>16.162745</v>
+        <v>16.162745000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1196.040000</v>
+        <v>1196.04</v>
       </c>
       <c r="N15" s="1">
-        <v>-148.572000</v>
+        <v>-148.572</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>58196.439747</v>
+        <v>58196.439746999997</v>
       </c>
       <c r="Q15" s="1">
         <v>16.165678</v>
       </c>
       <c r="R15" s="1">
-        <v>1203.670000</v>
+        <v>1203.67</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.022000</v>
+        <v>-127.02200000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>58207.282820</v>
+        <v>58207.28282</v>
       </c>
       <c r="V15" s="1">
-        <v>16.168690</v>
+        <v>16.168690000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1210.770000</v>
+        <v>1210.77</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.674000</v>
+        <v>-106.67400000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>58217.818808</v>
+        <v>58217.818808000004</v>
       </c>
       <c r="AA15" s="1">
         <v>16.171616</v>
       </c>
       <c r="AB15" s="1">
-        <v>1218.090000</v>
+        <v>1218.0899999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.005800</v>
+        <v>-90.005799999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>58228.311208</v>
+        <v>58228.311207999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.174531</v>
+        <v>16.174531000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1222.550000</v>
+        <v>1222.55</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.775100</v>
+        <v>-85.775099999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>58238.815493</v>
+        <v>58238.815493000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>16.177449</v>
+        <v>16.177448999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1229.680000</v>
+        <v>1229.68</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.410000</v>
+        <v>-89.41</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>58249.581612</v>
+        <v>58249.581612000002</v>
       </c>
       <c r="AP15" s="1">
         <v>16.180439</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.661000</v>
+        <v>-101.661</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>58260.945485</v>
+        <v>58260.945484999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.183596</v>
+        <v>16.183596000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1247.530000</v>
+        <v>1247.53</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.321000</v>
+        <v>-121.321</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>58272.458127</v>
+        <v>58272.458126999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>16.186794</v>
+        <v>16.186793999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.089000</v>
+        <v>-139.089</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>58283.451425</v>
+        <v>58283.451424999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>16.189848</v>
+        <v>16.189848000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1296.590000</v>
+        <v>1296.5899999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.804000</v>
+        <v>-221.804</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>58294.731472</v>
+        <v>58294.731471999999</v>
       </c>
       <c r="BJ15" s="1">
         <v>16.192981</v>
       </c>
       <c r="BK15" s="1">
-        <v>1367.430000</v>
+        <v>1367.43</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.018000</v>
+        <v>-359.01799999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>58305.848274</v>
+        <v>58305.848274000004</v>
       </c>
       <c r="BO15" s="1">
-        <v>16.196069</v>
+        <v>16.196069000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1483.820000</v>
+        <v>1483.82</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-581.234000</v>
+        <v>-581.23400000000004</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>58317.220584</v>
+        <v>58317.220584000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>16.199228</v>
+        <v>16.199228000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1617.730000</v>
+        <v>1617.73</v>
       </c>
       <c r="BV15" s="1">
-        <v>-831.392000</v>
+        <v>-831.39200000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>58328.461414</v>
+        <v>58328.461413999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>16.202350</v>
+        <v>16.202349999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1772.020000</v>
+        <v>1772.02</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1101.580000</v>
+        <v>-1101.58</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>58340.831108</v>
+        <v>58340.831107999998</v>
       </c>
       <c r="CD15" s="1">
         <v>16.205786</v>
       </c>
       <c r="CE15" s="1">
-        <v>2194.000000</v>
+        <v>2194</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1754.960000</v>
+        <v>-1754.96</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>58165.602475</v>
       </c>
       <c r="B16" s="1">
-        <v>16.157112</v>
+        <v>16.157112000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.190000</v>
+        <v>1149.19</v>
       </c>
       <c r="D16" s="1">
-        <v>-255.239000</v>
+        <v>-255.239</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>58175.740213</v>
+        <v>58175.740212999997</v>
       </c>
       <c r="G16" s="1">
-        <v>16.159928</v>
+        <v>16.159928000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1169.890000</v>
+        <v>1169.8900000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-213.568000</v>
+        <v>-213.56800000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>58186.227120</v>
+        <v>58186.227120000003</v>
       </c>
       <c r="L16" s="1">
         <v>16.162841</v>
       </c>
       <c r="M16" s="1">
-        <v>1196.200000</v>
+        <v>1196.2</v>
       </c>
       <c r="N16" s="1">
-        <v>-148.801000</v>
+        <v>-148.80099999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>58197.133682</v>
       </c>
       <c r="Q16" s="1">
-        <v>16.165870</v>
+        <v>16.165870000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1203.640000</v>
+        <v>1203.6400000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.100000</v>
+        <v>-127.1</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>58207.625525</v>
+        <v>58207.625525000003</v>
       </c>
       <c r="V16" s="1">
         <v>16.168785</v>
       </c>
       <c r="W16" s="1">
-        <v>1210.710000</v>
+        <v>1210.71</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.331000</v>
+        <v>-106.331</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>58218.165542</v>
+        <v>58218.165542000002</v>
       </c>
       <c r="AA16" s="1">
         <v>16.171713</v>
       </c>
       <c r="AB16" s="1">
-        <v>1218.130000</v>
+        <v>1218.1300000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.946800</v>
+        <v>-89.946799999999996</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>58228.653448</v>
+        <v>58228.653447999997</v>
       </c>
       <c r="AF16" s="1">
         <v>16.174626</v>
       </c>
       <c r="AG16" s="1">
-        <v>1222.510000</v>
+        <v>1222.51</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.676200</v>
+        <v>-85.676199999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>58239.471695</v>
       </c>
       <c r="AK16" s="1">
-        <v>16.177631</v>
+        <v>16.177631000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1229.590000</v>
+        <v>1229.5899999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.452800</v>
+        <v>-89.452799999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>58250.248733</v>
       </c>
       <c r="AP16" s="1">
-        <v>16.180625</v>
+        <v>16.180624999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.665000</v>
+        <v>-101.66500000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>58261.364077</v>
+        <v>58261.364076999998</v>
       </c>
       <c r="AU16" s="1">
         <v>16.183712</v>
       </c>
       <c r="AV16" s="1">
-        <v>1247.500000</v>
+        <v>1247.5</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.327000</v>
+        <v>-121.327</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>58272.833567</v>
+        <v>58272.833567000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>16.186898</v>
+        <v>16.186897999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1255.990000</v>
+        <v>1255.99</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.057000</v>
+        <v>-139.05699999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>58283.833344</v>
+        <v>58283.833343999999</v>
       </c>
       <c r="BE16" s="1">
         <v>16.189954</v>
       </c>
       <c r="BF16" s="1">
-        <v>1296.590000</v>
+        <v>1296.5899999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.819000</v>
+        <v>-221.81899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>58295.106912</v>
+        <v>58295.106912000003</v>
       </c>
       <c r="BJ16" s="1">
         <v>16.193085</v>
       </c>
       <c r="BK16" s="1">
-        <v>1367.410000</v>
+        <v>1367.41</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.004000</v>
+        <v>-359.00400000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>58306.280786</v>
+        <v>58306.280786000003</v>
       </c>
       <c r="BO16" s="1">
         <v>16.196189</v>
       </c>
       <c r="BP16" s="1">
-        <v>1483.800000</v>
+        <v>1483.8</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-581.273000</v>
+        <v>-581.27300000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>58317.675379</v>
@@ -4289,1331 +4705,1331 @@
         <v>16.199354</v>
       </c>
       <c r="BU16" s="1">
-        <v>1617.760000</v>
+        <v>1617.76</v>
       </c>
       <c r="BV16" s="1">
-        <v>-831.458000</v>
+        <v>-831.45799999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>58328.891412</v>
+        <v>58328.891411999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>16.202470</v>
+        <v>16.202470000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1772.070000</v>
+        <v>1772.07</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1101.580000</v>
+        <v>-1101.58</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>58341.348931</v>
       </c>
       <c r="CD16" s="1">
-        <v>16.205930</v>
+        <v>16.205929999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2193.780000</v>
+        <v>2193.7800000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1753.340000</v>
+        <v>-1753.34</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>58165.945211</v>
+        <v>58165.945210999998</v>
       </c>
       <c r="B17" s="1">
         <v>16.157207</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.260000</v>
+        <v>1149.26</v>
       </c>
       <c r="D17" s="1">
-        <v>-255.046000</v>
+        <v>-255.04599999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>58176.427661</v>
+        <v>58176.427661000002</v>
       </c>
       <c r="G17" s="1">
-        <v>16.160119</v>
+        <v>16.160119000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1169.840000</v>
+        <v>1169.8399999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-214.550000</v>
+        <v>-214.55</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>58186.920031</v>
+        <v>58186.920031000001</v>
       </c>
       <c r="L17" s="1">
-        <v>16.163033</v>
+        <v>16.163032999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1196.120000</v>
+        <v>1196.1199999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-148.546000</v>
+        <v>-148.54599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>58197.486305</v>
+        <v>58197.486304999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>16.165968</v>
+        <v>16.165967999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1203.550000</v>
+        <v>1203.55</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.083000</v>
+        <v>-127.083</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>58207.968757</v>
+        <v>58207.968757000002</v>
       </c>
       <c r="V17" s="1">
-        <v>16.168880</v>
+        <v>16.168880000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1210.890000</v>
+        <v>1210.8900000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.594000</v>
+        <v>-106.59399999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>58218.517173</v>
       </c>
       <c r="AA17" s="1">
-        <v>16.171810</v>
+        <v>16.171810000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1218.070000</v>
+        <v>1218.07</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.005800</v>
+        <v>-90.005799999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>58229.313095</v>
+        <v>58229.313094999998</v>
       </c>
       <c r="AF17" s="1">
         <v>16.174809</v>
       </c>
       <c r="AG17" s="1">
-        <v>1222.580000</v>
+        <v>1222.58</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.698800</v>
+        <v>-85.698800000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>58239.863995</v>
       </c>
       <c r="AK17" s="1">
-        <v>16.177740</v>
+        <v>16.17774</v>
       </c>
       <c r="AL17" s="1">
-        <v>1229.560000</v>
+        <v>1229.56</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.453600</v>
+        <v>-89.453599999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>58250.698109</v>
+        <v>58250.698108999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>16.180749</v>
+        <v>16.180748999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1237.490000</v>
+        <v>1237.49</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.670000</v>
+        <v>-101.67</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>58261.724670</v>
+        <v>58261.724670000003</v>
       </c>
       <c r="AU17" s="1">
         <v>16.183812</v>
       </c>
       <c r="AV17" s="1">
-        <v>1247.480000</v>
+        <v>1247.48</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.320000</v>
+        <v>-121.32</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>58273.211056</v>
       </c>
       <c r="AZ17" s="1">
-        <v>16.187003</v>
+        <v>16.187003000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.087000</v>
+        <v>-139.08699999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>58284.195423</v>
+        <v>58284.195422999997</v>
       </c>
       <c r="BE17" s="1">
         <v>16.190054</v>
       </c>
       <c r="BF17" s="1">
-        <v>1296.590000</v>
+        <v>1296.5899999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.815000</v>
+        <v>-221.815</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>58295.530536</v>
+        <v>58295.530535999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>16.193203</v>
       </c>
       <c r="BK17" s="1">
-        <v>1367.430000</v>
+        <v>1367.43</v>
       </c>
       <c r="BL17" s="1">
-        <v>-358.980000</v>
+        <v>-358.98</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>58306.663699</v>
+        <v>58306.663698999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>16.196295</v>
+        <v>16.196294999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1483.830000</v>
+        <v>1483.83</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-581.223000</v>
+        <v>-581.22299999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>58318.058786</v>
+        <v>58318.058786000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>16.199461</v>
+        <v>16.199460999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1617.830000</v>
+        <v>1617.83</v>
       </c>
       <c r="BV17" s="1">
-        <v>-831.485000</v>
+        <v>-831.48500000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>58329.314499</v>
       </c>
       <c r="BY17" s="1">
-        <v>16.202587</v>
+        <v>16.202587000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1772.080000</v>
+        <v>1772.08</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1101.690000</v>
+        <v>-1101.69</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>58341.867250</v>
+        <v>58341.867250000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.206074</v>
+        <v>16.206074000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2191.660000</v>
+        <v>2191.66</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1753.800000</v>
+        <v>-1753.8</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>58166.630683</v>
+        <v>58166.630683000003</v>
       </c>
       <c r="B18" s="1">
         <v>16.157397</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.390000</v>
+        <v>1149.3900000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-255.162000</v>
+        <v>-255.16200000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>58176.772382</v>
+        <v>58176.772382000003</v>
       </c>
       <c r="G18" s="1">
-        <v>16.160215</v>
+        <v>16.160215000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1170.260000</v>
+        <v>1170.26</v>
       </c>
       <c r="I18" s="1">
-        <v>-213.908000</v>
+        <v>-213.90799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>58187.267760</v>
+        <v>58187.267760000002</v>
       </c>
       <c r="L18" s="1">
-        <v>16.163130</v>
+        <v>16.163129999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1196.000000</v>
+        <v>1196</v>
       </c>
       <c r="N18" s="1">
-        <v>-148.476000</v>
+        <v>-148.476</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>58197.834001</v>
+        <v>58197.834001000003</v>
       </c>
       <c r="Q18" s="1">
         <v>16.166065</v>
       </c>
       <c r="R18" s="1">
-        <v>1203.540000</v>
+        <v>1203.54</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.069000</v>
+        <v>-127.069</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>58208.624498</v>
+        <v>58208.624497999997</v>
       </c>
       <c r="V18" s="1">
         <v>16.169062</v>
       </c>
       <c r="W18" s="1">
-        <v>1210.730000</v>
+        <v>1210.73</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.488000</v>
+        <v>-106.488</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>58219.180326</v>
+        <v>58219.180326000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.171995</v>
+        <v>16.171994999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1217.990000</v>
+        <v>1217.99</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.035700</v>
+        <v>-90.035700000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>58229.690583</v>
+        <v>58229.690583000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>16.174914</v>
+        <v>16.174914000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1222.540000</v>
+        <v>1222.54</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.787100</v>
+        <v>-85.787099999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>58240.211694</v>
+        <v>58240.211693999998</v>
       </c>
       <c r="AK18" s="1">
         <v>16.177837</v>
       </c>
       <c r="AL18" s="1">
-        <v>1229.590000</v>
+        <v>1229.5899999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.440900</v>
+        <v>-89.440899999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>58251.058700</v>
+        <v>58251.058700000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>16.180850</v>
+        <v>16.18085</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1237.510000</v>
+        <v>1237.51</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.705000</v>
+        <v>-101.705</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>58262.096172</v>
+        <v>58262.096171999998</v>
       </c>
       <c r="AU18" s="1">
         <v>16.183916</v>
       </c>
       <c r="AV18" s="1">
-        <v>1247.490000</v>
+        <v>1247.49</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.341000</v>
+        <v>-121.34099999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>58273.625709</v>
       </c>
       <c r="AZ18" s="1">
-        <v>16.187118</v>
+        <v>16.187118000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.062000</v>
+        <v>-139.06200000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>58284.639838</v>
+        <v>58284.639838000003</v>
       </c>
       <c r="BE18" s="1">
         <v>16.190178</v>
       </c>
       <c r="BF18" s="1">
-        <v>1296.630000</v>
+        <v>1296.6300000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.820000</v>
+        <v>-221.82</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>58295.884639</v>
+        <v>58295.884639000004</v>
       </c>
       <c r="BJ18" s="1">
-        <v>16.193301</v>
+        <v>16.193301000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1367.430000</v>
+        <v>1367.43</v>
       </c>
       <c r="BL18" s="1">
-        <v>-358.995000</v>
+        <v>-358.995</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>58307.060499</v>
+        <v>58307.060498999999</v>
       </c>
       <c r="BO18" s="1">
         <v>16.196406</v>
       </c>
       <c r="BP18" s="1">
-        <v>1483.840000</v>
+        <v>1483.84</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-581.250000</v>
+        <v>-581.25</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>58318.488321</v>
+        <v>58318.488320999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>16.199580</v>
+        <v>16.199580000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1617.950000</v>
+        <v>1617.95</v>
       </c>
       <c r="BV18" s="1">
-        <v>-831.423000</v>
+        <v>-831.423</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>58329.736100</v>
+        <v>58329.736100000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>16.202704</v>
+        <v>16.202704000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1772.080000</v>
+        <v>1772.08</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1101.560000</v>
+        <v>-1101.56</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>58342.382594</v>
+        <v>58342.382594000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>16.206217</v>
+        <v>16.206216999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2191.740000</v>
+        <v>2191.7399999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1753.720000</v>
+        <v>-1753.72</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>58166.973419</v>
+        <v>58166.973419000002</v>
       </c>
       <c r="B19" s="1">
-        <v>16.157493</v>
+        <v>16.157492999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1149.240000</v>
+        <v>1149.24</v>
       </c>
       <c r="D19" s="1">
-        <v>-255.269000</v>
+        <v>-255.26900000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>58177.116604</v>
+        <v>58177.116604000003</v>
       </c>
       <c r="G19" s="1">
-        <v>16.160310</v>
+        <v>16.160309999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1170.010000</v>
+        <v>1170.01</v>
       </c>
       <c r="I19" s="1">
-        <v>-214.135000</v>
+        <v>-214.13499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>58187.926445</v>
+        <v>58187.926444999997</v>
       </c>
       <c r="L19" s="1">
-        <v>16.163313</v>
+        <v>16.163312999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1196.100000</v>
+        <v>1196.0999999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-148.524000</v>
+        <v>-148.524</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>58198.505584</v>
+        <v>58198.505583999999</v>
       </c>
       <c r="Q19" s="1">
         <v>16.166252</v>
       </c>
       <c r="R19" s="1">
-        <v>1203.580000</v>
+        <v>1203.58</v>
       </c>
       <c r="S19" s="1">
-        <v>-126.991000</v>
+        <v>-126.991</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>58209.000466</v>
+        <v>58209.000465999998</v>
       </c>
       <c r="V19" s="1">
-        <v>16.169167</v>
+        <v>16.169167000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1210.780000</v>
+        <v>1210.78</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.406000</v>
+        <v>-106.40600000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>58219.563732</v>
+        <v>58219.563732000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.172101</v>
+        <v>16.172101000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1217.890000</v>
+        <v>1217.8900000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.975800</v>
+        <v>-89.975800000000007</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>58230.039734</v>
+        <v>58230.039733999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>16.175011</v>
+        <v>16.175011000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1222.600000</v>
+        <v>1222.5999999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.834200</v>
+        <v>-85.834199999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>58240.563385</v>
+        <v>58240.563385000001</v>
       </c>
       <c r="AK19" s="1">
         <v>16.177934</v>
       </c>
       <c r="AL19" s="1">
-        <v>1229.590000</v>
+        <v>1229.5899999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.441600</v>
+        <v>-89.441599999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>58251.418330</v>
+        <v>58251.41833</v>
       </c>
       <c r="AP19" s="1">
-        <v>16.180950</v>
+        <v>16.180949999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1237.500000</v>
+        <v>1237.5</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.687000</v>
+        <v>-101.687</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>58262.523229</v>
+        <v>58262.523228999999</v>
       </c>
       <c r="AU19" s="1">
         <v>16.184034</v>
       </c>
       <c r="AV19" s="1">
-        <v>1247.490000</v>
+        <v>1247.49</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.307000</v>
+        <v>-121.307</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>58273.931226</v>
+        <v>58273.931226000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>16.187203</v>
       </c>
       <c r="BA19" s="1">
-        <v>1255.980000</v>
+        <v>1255.98</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.038000</v>
+        <v>-139.03800000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>58284.915118</v>
+        <v>58284.915117999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.190254</v>
+        <v>16.190253999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1296.620000</v>
+        <v>1296.6199999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.793000</v>
+        <v>-221.79300000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>58296.259119</v>
+        <v>58296.259119000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>16.193405</v>
+        <v>16.193404999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1367.410000</v>
+        <v>1367.41</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.008000</v>
+        <v>-359.00799999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>58307.487589</v>
+        <v>58307.487588999997</v>
       </c>
       <c r="BO19" s="1">
         <v>16.196524</v>
       </c>
       <c r="BP19" s="1">
-        <v>1483.840000</v>
+        <v>1483.84</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-581.245000</v>
+        <v>-581.245</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>58319.326102</v>
+        <v>58319.326101999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.199813</v>
+        <v>16.199812999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1618.070000</v>
+        <v>1618.07</v>
       </c>
       <c r="BV19" s="1">
-        <v>-831.468000</v>
+        <v>-831.46799999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>58330.181011</v>
+        <v>58330.181011000001</v>
       </c>
       <c r="BY19" s="1">
         <v>16.202828</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1772.070000</v>
+        <v>1772.07</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1101.690000</v>
+        <v>-1101.69</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>58342.935143</v>
+        <v>58342.935143000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>16.206371</v>
+        <v>16.206371000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2192.810000</v>
+        <v>2192.81</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1753.280000</v>
+        <v>-1753.28</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>58167.315161</v>
+        <v>58167.315160999999</v>
       </c>
       <c r="B20" s="1">
-        <v>16.157588</v>
+        <v>16.157588000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.310000</v>
+        <v>1149.31</v>
       </c>
       <c r="D20" s="1">
-        <v>-255.068000</v>
+        <v>-255.06800000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>58177.783263</v>
+        <v>58177.783262999998</v>
       </c>
       <c r="G20" s="1">
-        <v>16.160495</v>
+        <v>16.160495000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1169.240000</v>
+        <v>1169.24</v>
       </c>
       <c r="I20" s="1">
-        <v>-214.639000</v>
+        <v>-214.63900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>58188.302382</v>
+        <v>58188.302382000002</v>
       </c>
       <c r="L20" s="1">
-        <v>16.163417</v>
+        <v>16.163416999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1196.040000</v>
+        <v>1196.04</v>
       </c>
       <c r="N20" s="1">
-        <v>-148.757000</v>
+        <v>-148.75700000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>58198.880065</v>
+        <v>58198.880064999998</v>
       </c>
       <c r="Q20" s="1">
         <v>16.166356</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.620000</v>
+        <v>1203.6199999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.022000</v>
+        <v>-127.02200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>58209.342706</v>
+        <v>58209.342706000003</v>
       </c>
       <c r="V20" s="1">
         <v>16.169262</v>
       </c>
       <c r="W20" s="1">
-        <v>1210.660000</v>
+        <v>1210.6600000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.611000</v>
+        <v>-106.611</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>58219.910436</v>
+        <v>58219.910435999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>16.172197</v>
+        <v>16.172197000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1217.980000</v>
+        <v>1217.98</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.979700</v>
+        <v>-89.979699999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>58230.383462</v>
+        <v>58230.383461999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.175107</v>
+        <v>16.175107000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1222.560000</v>
+        <v>1222.56</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.808900</v>
+        <v>-85.808899999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>58240.982471</v>
+        <v>58240.982471000003</v>
       </c>
       <c r="AK20" s="1">
         <v>16.178051</v>
       </c>
       <c r="AL20" s="1">
-        <v>1229.610000</v>
+        <v>1229.6099999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.434000</v>
+        <v>-89.433999999999997</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>58251.897930</v>
+        <v>58251.897929999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>16.181083</v>
+        <v>16.181083000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1237.500000</v>
+        <v>1237.5</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.662000</v>
+        <v>-101.66200000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>58262.825787</v>
+        <v>58262.825787000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>16.184118</v>
+        <v>16.184118000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1247.490000</v>
+        <v>1247.49</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.328000</v>
+        <v>-121.328</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>58274.288828</v>
+        <v>58274.288827999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.187302</v>
+        <v>16.187301999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1256.030000</v>
+        <v>1256.03</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.056000</v>
+        <v>-139.05600000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>58285.274221</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.190354</v>
+        <v>16.190353999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1296.630000</v>
+        <v>1296.6300000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.811000</v>
+        <v>-221.81100000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>58296.633600</v>
+        <v>58296.633600000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>16.193509</v>
+        <v>16.193508999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1367.420000</v>
+        <v>1367.42</v>
       </c>
       <c r="BL20" s="1">
-        <v>-358.980000</v>
+        <v>-358.98</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>58308.299039</v>
+        <v>58308.299038999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>16.196750</v>
+        <v>16.196750000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1483.820000</v>
+        <v>1483.82</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-581.160000</v>
+        <v>-581.16</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>58319.762580</v>
+        <v>58319.762580000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>16.199934</v>
+        <v>16.199933999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1618.210000</v>
+        <v>1618.21</v>
       </c>
       <c r="BV20" s="1">
-        <v>-831.473000</v>
+        <v>-831.47299999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>58330.617489</v>
+        <v>58330.617488999997</v>
       </c>
       <c r="BY20" s="1">
         <v>16.202949</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1772.210000</v>
+        <v>1772.21</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1101.630000</v>
+        <v>-1101.6300000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>58343.465420</v>
+        <v>58343.46542</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.206518</v>
+        <v>16.206517999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2191.910000</v>
+        <v>2191.91</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1754.670000</v>
+        <v>-1754.67</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>58167.968392</v>
+        <v>58167.968392000002</v>
       </c>
       <c r="B21" s="1">
-        <v>16.157769</v>
+        <v>16.157768999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.370000</v>
+        <v>1149.3699999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-255.164000</v>
+        <v>-255.16399999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>58178.153774</v>
+        <v>58178.153773999999</v>
       </c>
       <c r="G21" s="1">
         <v>16.160598</v>
       </c>
       <c r="H21" s="1">
-        <v>1170.520000</v>
+        <v>1170.52</v>
       </c>
       <c r="I21" s="1">
-        <v>-214.267000</v>
+        <v>-214.267</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>58188.648125</v>
       </c>
       <c r="L21" s="1">
-        <v>16.163513</v>
+        <v>16.163512999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1196.450000</v>
+        <v>1196.45</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.830000</v>
+        <v>-148.83000000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>58199.225775</v>
+        <v>58199.225774999999</v>
       </c>
       <c r="Q21" s="1">
         <v>16.166452</v>
       </c>
       <c r="R21" s="1">
-        <v>1203.610000</v>
+        <v>1203.6099999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.049000</v>
+        <v>-127.04900000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>58209.686897</v>
       </c>
       <c r="V21" s="1">
-        <v>16.169357</v>
+        <v>16.169357000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1210.760000</v>
+        <v>1210.76</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.476000</v>
+        <v>-106.476</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>58220.334019</v>
+        <v>58220.334019000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>16.172315</v>
+        <v>16.172315000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1217.960000</v>
+        <v>1217.96</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.099600</v>
+        <v>-90.099599999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>58230.802613</v>
       </c>
       <c r="AF21" s="1">
-        <v>16.175223</v>
+        <v>16.175222999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1222.600000</v>
+        <v>1222.5999999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.799300</v>
+        <v>-85.799300000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>58241.270685</v>
+        <v>58241.270685000003</v>
       </c>
       <c r="AK21" s="1">
         <v>16.178131</v>
       </c>
       <c r="AL21" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.450400</v>
+        <v>-89.450400000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>58252.138987</v>
+        <v>58252.138986999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>16.181150</v>
+        <v>16.181149999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.675000</v>
+        <v>-101.675</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>58263.189147</v>
+        <v>58263.189146999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>16.184219</v>
+        <v>16.184218999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1247.500000</v>
+        <v>1247.5</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.334000</v>
+        <v>-121.334</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>58274.648923</v>
+        <v>58274.648923000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.187402</v>
+        <v>16.187401999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1256.010000</v>
+        <v>1256.01</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.050000</v>
+        <v>-139.05000000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>58286.009294</v>
+        <v>58286.009294000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>16.190558</v>
+        <v>16.190557999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1296.630000</v>
+        <v>1296.6300000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.787000</v>
+        <v>-221.78700000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>58297.383549</v>
+        <v>58297.383548999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>16.193718</v>
+        <v>16.193718000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1367.380000</v>
+        <v>1367.38</v>
       </c>
       <c r="BL21" s="1">
-        <v>-358.975000</v>
+        <v>-358.97500000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>58308.719646</v>
+        <v>58308.719645999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>16.196867</v>
+        <v>16.196867000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1483.810000</v>
+        <v>1483.81</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-581.250000</v>
+        <v>-581.25</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>58320.188111</v>
+        <v>58320.188111000003</v>
       </c>
       <c r="BT21" s="1">
-        <v>16.200052</v>
+        <v>16.200051999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1618.190000</v>
+        <v>1618.19</v>
       </c>
       <c r="BV21" s="1">
-        <v>-831.350000</v>
+        <v>-831.35</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>58331.072321</v>
       </c>
       <c r="BY21" s="1">
-        <v>16.203076</v>
+        <v>16.203075999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1772.140000</v>
+        <v>1772.14</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1101.550000</v>
+        <v>-1101.55</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>58344.297682</v>
+        <v>58344.297681999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.206749</v>
+        <v>16.206748999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2193.670000</v>
+        <v>2193.67</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1755.710000</v>
+        <v>-1755.71</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>58168.336936</v>
       </c>
@@ -5621,43 +6037,43 @@
         <v>16.157871</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.040000</v>
+        <v>1149.04</v>
       </c>
       <c r="D22" s="1">
-        <v>-254.939000</v>
+        <v>-254.93899999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>58178.498458</v>
+        <v>58178.498458000002</v>
       </c>
       <c r="G22" s="1">
-        <v>16.160694</v>
+        <v>16.160693999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1169.600000</v>
+        <v>1169.5999999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-213.753000</v>
+        <v>-213.75299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>58188.997805</v>
+        <v>58188.997804999999</v>
       </c>
       <c r="L22" s="1">
         <v>16.163611</v>
       </c>
       <c r="M22" s="1">
-        <v>1196.100000</v>
+        <v>1196.0999999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-148.551000</v>
+        <v>-148.55099999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>58199.576944</v>
@@ -5666,193 +6082,193 @@
         <v>16.166549</v>
       </c>
       <c r="R22" s="1">
-        <v>1203.540000</v>
+        <v>1203.54</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.102000</v>
+        <v>-127.102</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>58210.129329</v>
+        <v>58210.129329000003</v>
       </c>
       <c r="V22" s="1">
-        <v>16.169480</v>
+        <v>16.16948</v>
       </c>
       <c r="W22" s="1">
-        <v>1210.680000</v>
+        <v>1210.68</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.611000</v>
+        <v>-106.611</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>58220.608839</v>
       </c>
       <c r="AA22" s="1">
-        <v>16.172391</v>
+        <v>16.172391000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1218.040000</v>
+        <v>1218.04</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.068400</v>
+        <v>-90.068399999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>58231.077892</v>
+        <v>58231.077892000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>16.175299</v>
+        <v>16.175298999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1222.520000</v>
+        <v>1222.52</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.740700</v>
+        <v>-85.740700000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>58241.617384</v>
+        <v>58241.617383999997</v>
       </c>
       <c r="AK22" s="1">
         <v>16.178227</v>
       </c>
       <c r="AL22" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.438200</v>
+        <v>-89.438199999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>58252.498586</v>
+        <v>58252.498586000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>16.181250</v>
+        <v>16.181249999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1237.480000</v>
+        <v>1237.48</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.678000</v>
+        <v>-101.678</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>58263.554907</v>
+        <v>58263.554906999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>16.184321</v>
+        <v>16.184321000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1247.490000</v>
+        <v>1247.49</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.354000</v>
+        <v>-121.354</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>58275.367130</v>
+        <v>58275.367129999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>16.187602</v>
+        <v>16.187601999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1256.020000</v>
+        <v>1256.02</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.062000</v>
+        <v>-139.06200000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>58286.383277</v>
+        <v>58286.383277000001</v>
       </c>
       <c r="BE22" s="1">
         <v>16.190662</v>
       </c>
       <c r="BF22" s="1">
-        <v>1296.630000</v>
+        <v>1296.6300000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.828000</v>
+        <v>-221.828</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>58297.758525</v>
+        <v>58297.758524999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.193822</v>
+        <v>16.193822000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1367.430000</v>
+        <v>1367.43</v>
       </c>
       <c r="BL22" s="1">
-        <v>-358.970000</v>
+        <v>-358.97</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>58309.113438</v>
       </c>
       <c r="BO22" s="1">
-        <v>16.196976</v>
+        <v>16.196975999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1483.830000</v>
+        <v>1483.83</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-581.214000</v>
+        <v>-581.21400000000006</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>58320.921198</v>
+        <v>58320.921197999996</v>
       </c>
       <c r="BT22" s="1">
         <v>16.200256</v>
       </c>
       <c r="BU22" s="1">
-        <v>1618.240000</v>
+        <v>1618.24</v>
       </c>
       <c r="BV22" s="1">
-        <v>-831.441000</v>
+        <v>-831.44100000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>58331.833185</v>
+        <v>58331.833185000003</v>
       </c>
       <c r="BY22" s="1">
         <v>16.203287</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1772.070000</v>
+        <v>1772.07</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1101.480000</v>
+        <v>-1101.48</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>58344.502494</v>
@@ -5861,16 +6277,16 @@
         <v>16.206806</v>
       </c>
       <c r="CE22" s="1">
-        <v>2194.240000</v>
+        <v>2194.2399999999998</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1753.570000</v>
+        <v>-1753.57</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>58168.685609</v>
       </c>
@@ -5878,223 +6294,223 @@
         <v>16.157968</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.060000</v>
+        <v>1149.06</v>
       </c>
       <c r="D23" s="1">
-        <v>-255.244000</v>
+        <v>-255.244</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>58178.845689</v>
+        <v>58178.845689000002</v>
       </c>
       <c r="G23" s="1">
-        <v>16.160790</v>
+        <v>16.160789999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1169.890000</v>
+        <v>1169.8900000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-214.029000</v>
+        <v>-214.029</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>58189.421885</v>
+        <v>58189.421885000003</v>
       </c>
       <c r="L23" s="1">
-        <v>16.163728</v>
+        <v>16.163727999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.980000</v>
+        <v>1195.98</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.630000</v>
+        <v>-148.63</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>58200.006976</v>
+        <v>58200.006975999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>16.166669</v>
+        <v>16.166668999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1203.590000</v>
+        <v>1203.5899999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.088000</v>
+        <v>-127.08799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>58210.395712</v>
+        <v>58210.395711999998</v>
       </c>
       <c r="V23" s="1">
-        <v>16.169554</v>
+        <v>16.169554000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>1210.640000</v>
+        <v>1210.6400000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.658000</v>
+        <v>-106.658</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>58220.955507</v>
+        <v>58220.955506999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>16.172488</v>
+        <v>16.172488000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1217.950000</v>
+        <v>1217.95</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.947800</v>
+        <v>-89.947800000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>58231.422117</v>
+        <v>58231.422117000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>16.175395</v>
+        <v>16.175395000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1222.530000</v>
+        <v>1222.53</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.795000</v>
+        <v>-85.795000000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>58241.969047</v>
+        <v>58241.969046999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>16.178325</v>
+        <v>16.178325000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1229.630000</v>
+        <v>1229.6300000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.432100</v>
+        <v>-89.432100000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>58253.221753</v>
+        <v>58253.221752999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>16.181450</v>
+        <v>16.181450000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1237.500000</v>
+        <v>1237.5</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.699000</v>
+        <v>-101.699</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>58264.284057</v>
+        <v>58264.284056999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.184523</v>
+        <v>16.184522999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1247.510000</v>
+        <v>1247.51</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.335000</v>
+        <v>-121.33499999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>58275.724746</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.187701</v>
+        <v>16.187701000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1255.960000</v>
+        <v>1255.96</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.057000</v>
+        <v>-139.05699999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>58286.746844</v>
+        <v>58286.746844000001</v>
       </c>
       <c r="BE23" s="1">
         <v>16.190763</v>
       </c>
       <c r="BF23" s="1">
-        <v>1296.640000</v>
+        <v>1296.6400000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.795000</v>
+        <v>-221.79499999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>58298.139454</v>
+        <v>58298.139453999996</v>
       </c>
       <c r="BJ23" s="1">
         <v>16.193928</v>
       </c>
       <c r="BK23" s="1">
-        <v>1367.460000</v>
+        <v>1367.46</v>
       </c>
       <c r="BL23" s="1">
-        <v>-358.993000</v>
+        <v>-358.99299999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>58309.843053</v>
+        <v>58309.843052999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>16.197179</v>
+        <v>16.197178999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1483.810000</v>
+        <v>1483.81</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-581.215000</v>
+        <v>-581.21500000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>58321.031806</v>
+        <v>58321.031805999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>16.200287</v>
+        <v>16.200286999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1618.320000</v>
+        <v>1618.32</v>
       </c>
       <c r="BV23" s="1">
-        <v>-831.292000</v>
+        <v>-831.29200000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>58331.971071</v>
@@ -6103,801 +6519,802 @@
         <v>16.203325</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1772.010000</v>
+        <v>1772.01</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1101.640000</v>
+        <v>-1101.6400000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>58345.020351</v>
+        <v>58345.020350999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>16.206950</v>
+        <v>16.206949999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2194.190000</v>
+        <v>2194.19</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1753.540000</v>
+        <v>-1753.54</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>58169.022428</v>
+        <v>58169.022427999997</v>
       </c>
       <c r="B24" s="1">
-        <v>16.158062</v>
+        <v>16.158062000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.350000</v>
+        <v>1149.3499999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-255.290000</v>
+        <v>-255.29</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>58179.268250</v>
+        <v>58179.268250000001</v>
       </c>
       <c r="G24" s="1">
-        <v>16.160908</v>
+        <v>16.160907999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1169.520000</v>
+        <v>1169.52</v>
       </c>
       <c r="I24" s="1">
-        <v>-214.044000</v>
+        <v>-214.04400000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>58189.710028</v>
+        <v>58189.710028000001</v>
       </c>
       <c r="L24" s="1">
         <v>16.163808</v>
       </c>
       <c r="M24" s="1">
-        <v>1196.090000</v>
+        <v>1196.0899999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.675000</v>
+        <v>-148.67500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>58200.285229</v>
+        <v>58200.285229000001</v>
       </c>
       <c r="Q24" s="1">
         <v>16.166746</v>
       </c>
       <c r="R24" s="1">
-        <v>1203.590000</v>
+        <v>1203.5899999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.018000</v>
+        <v>-127.018</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>58210.740435</v>
       </c>
       <c r="V24" s="1">
-        <v>16.169650</v>
+        <v>16.169650000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1210.660000</v>
+        <v>1210.6600000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.621000</v>
+        <v>-106.621</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>58221.303698</v>
+        <v>58221.303698000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>16.172584</v>
+        <v>16.172584000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1217.980000</v>
+        <v>1217.98</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.015800</v>
+        <v>-90.015799999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>58231.764324</v>
+        <v>58231.764324000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>16.175490</v>
+        <v>16.17549</v>
       </c>
       <c r="AG24" s="1">
-        <v>1222.470000</v>
+        <v>1222.47</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.767900</v>
+        <v>-85.767899999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>58242.664902</v>
+        <v>58242.664901999997</v>
       </c>
       <c r="AK24" s="1">
         <v>16.178518</v>
       </c>
       <c r="AL24" s="1">
-        <v>1229.630000</v>
+        <v>1229.6300000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.420000</v>
+        <v>-89.42</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>58253.600708</v>
+        <v>58253.600707999998</v>
       </c>
       <c r="AP24" s="1">
         <v>16.181556</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1237.510000</v>
+        <v>1237.51</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.677000</v>
+        <v>-101.67700000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>58264.679338</v>
+        <v>58264.679338000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.184633</v>
+        <v>16.184633000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1247.490000</v>
+        <v>1247.49</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.368000</v>
+        <v>-121.36799999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>58276.083353</v>
+        <v>58276.083353000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>16.187801</v>
       </c>
       <c r="BA24" s="1">
-        <v>1255.980000</v>
+        <v>1255.98</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.059000</v>
+        <v>-139.059</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>58287.413994</v>
+        <v>58287.413994000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>16.190948</v>
+        <v>16.190947999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1296.610000</v>
+        <v>1296.6099999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.806000</v>
+        <v>-221.80600000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>58298.828923</v>
+        <v>58298.828923000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>16.194119</v>
+        <v>16.194119000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1367.440000</v>
+        <v>1367.44</v>
       </c>
       <c r="BL24" s="1">
-        <v>-358.986000</v>
+        <v>-358.98599999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>58310.365836</v>
+        <v>58310.365835999997</v>
       </c>
       <c r="BO24" s="1">
-        <v>16.197324</v>
+        <v>16.197323999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1483.810000</v>
+        <v>1483.81</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-581.164000</v>
+        <v>-581.16399999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>58321.469817</v>
+        <v>58321.469816999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>16.200408</v>
+        <v>16.200407999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1618.320000</v>
+        <v>1618.32</v>
       </c>
       <c r="BV24" s="1">
-        <v>-831.214000</v>
+        <v>-831.21400000000006</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>58332.395679</v>
+        <v>58332.395679000001</v>
       </c>
       <c r="BY24" s="1">
         <v>16.203443</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1771.920000</v>
+        <v>1771.92</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1101.620000</v>
+        <v>-1101.6199999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>58345.568430</v>
+        <v>58345.568429999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>16.207102</v>
+        <v>16.207101999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2194.120000</v>
+        <v>2194.12</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1754.540000</v>
+        <v>-1754.54</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>58169.445020</v>
+        <v>58169.445019999999</v>
       </c>
       <c r="B25" s="1">
-        <v>16.158179</v>
+        <v>16.158179000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.450000</v>
+        <v>1149.45</v>
       </c>
       <c r="D25" s="1">
-        <v>-255.191000</v>
+        <v>-255.191</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>58179.538073</v>
+        <v>58179.538073000003</v>
       </c>
       <c r="G25" s="1">
-        <v>16.160983</v>
+        <v>16.160983000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1169.160000</v>
+        <v>1169.1600000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-214.054000</v>
+        <v>-214.054</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>58190.054749</v>
+        <v>58190.054749000003</v>
       </c>
       <c r="L25" s="1">
-        <v>16.163904</v>
+        <v>16.163903999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.840000</v>
+        <v>1195.8399999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-148.582000</v>
+        <v>-148.58199999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>58200.632925</v>
+        <v>58200.632924999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>16.166842</v>
+        <v>16.166841999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1203.520000</v>
+        <v>1203.52</v>
       </c>
       <c r="S25" s="1">
-        <v>-126.952000</v>
+        <v>-126.952</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>58211.086112</v>
+        <v>58211.086111999997</v>
       </c>
       <c r="V25" s="1">
         <v>16.169746</v>
       </c>
       <c r="W25" s="1">
-        <v>1210.550000</v>
+        <v>1210.55</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.615000</v>
+        <v>-106.61499999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>58222.002065</v>
+        <v>58222.002065000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.172778</v>
+        <v>16.172778000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1217.940000</v>
+        <v>1217.94</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.136400</v>
+        <v>-90.136399999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>58232.452307</v>
       </c>
       <c r="AF25" s="1">
-        <v>16.175681</v>
+        <v>16.175681000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1222.620000</v>
+        <v>1222.6199999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.793900</v>
+        <v>-85.793899999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>58243.015077</v>
+        <v>58243.015076999996</v>
       </c>
       <c r="AK25" s="1">
-        <v>16.178615</v>
+        <v>16.178615000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1229.620000</v>
+        <v>1229.6199999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.431500</v>
+        <v>-89.4315</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>58253.992071</v>
+        <v>58253.992071000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>16.181664</v>
+        <v>16.181664000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1237.490000</v>
+        <v>1237.49</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.654000</v>
+        <v>-101.654</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>58265.039119</v>
+        <v>58265.039119000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>16.184733</v>
+        <v>16.184733000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1247.500000</v>
+        <v>1247.5</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.330000</v>
+        <v>-121.33</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>58276.764362</v>
+        <v>58276.764362000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>16.187990</v>
+        <v>16.187989999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1255.980000</v>
+        <v>1255.98</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.065000</v>
+        <v>-139.065</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>58287.866347</v>
+        <v>58287.866347000003</v>
       </c>
       <c r="BE25" s="1">
         <v>16.191074</v>
       </c>
       <c r="BF25" s="1">
-        <v>1296.600000</v>
+        <v>1296.5999999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.790000</v>
+        <v>-221.79</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>58299.258923</v>
+        <v>58299.258923000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>16.194239</v>
       </c>
       <c r="BK25" s="1">
-        <v>1367.440000</v>
+        <v>1367.44</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.008000</v>
+        <v>-359.00799999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>58310.773549</v>
+        <v>58310.773548999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>16.197437</v>
+        <v>16.197437000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1483.790000</v>
+        <v>1483.79</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-581.242000</v>
+        <v>-581.24199999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>58321.897821</v>
+        <v>58321.897820999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.200527</v>
+        <v>16.200527000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1618.330000</v>
+        <v>1618.33</v>
       </c>
       <c r="BV25" s="1">
-        <v>-831.216000</v>
+        <v>-831.21600000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>58332.817248</v>
+        <v>58332.817247999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>16.203560</v>
+        <v>16.20356</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1771.910000</v>
+        <v>1771.91</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1101.720000</v>
+        <v>-1101.72</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>58346.098648</v>
+        <v>58346.098647999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.207250</v>
+        <v>16.207249999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>2192.670000</v>
+        <v>2192.67</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1753.260000</v>
+        <v>-1753.26</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>58169.730974</v>
+        <v>58169.730973999998</v>
       </c>
       <c r="B26" s="1">
-        <v>16.158259</v>
+        <v>16.158259000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.060000</v>
+        <v>1149.06</v>
       </c>
       <c r="D26" s="1">
-        <v>-255.202000</v>
+        <v>-255.202</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>58179.882792</v>
+        <v>58179.882791999997</v>
       </c>
       <c r="G26" s="1">
-        <v>16.161079</v>
+        <v>16.161079000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1169.190000</v>
+        <v>1169.19</v>
       </c>
       <c r="I26" s="1">
-        <v>-214.261000</v>
+        <v>-214.261</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>58190.403466</v>
+        <v>58190.403466000003</v>
       </c>
       <c r="L26" s="1">
-        <v>16.164001</v>
+        <v>16.164000999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1196.060000</v>
+        <v>1196.06</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.932000</v>
+        <v>-148.93199999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>58200.981614</v>
+        <v>58200.981613999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>16.166939</v>
+        <v>16.166938999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1203.650000</v>
+        <v>1203.6500000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.064000</v>
+        <v>-127.06399999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>58211.773599</v>
       </c>
       <c r="V26" s="1">
-        <v>16.169937</v>
+        <v>16.169937000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1210.670000</v>
+        <v>1210.67</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.593000</v>
+        <v>-106.593</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>58222.349761</v>
+        <v>58222.349760999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.172875</v>
+        <v>16.172875000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1218.000000</v>
+        <v>1218</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.005000</v>
+        <v>-90.004999999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>58232.795508</v>
+        <v>58232.795508000003</v>
       </c>
       <c r="AF26" s="1">
         <v>16.175777</v>
       </c>
       <c r="AG26" s="1">
-        <v>1222.470000</v>
+        <v>1222.47</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.753600</v>
+        <v>-85.753600000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>58243.363801</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.178712</v>
+        <v>16.178712000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1229.630000</v>
+        <v>1229.6300000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.430800</v>
+        <v>-89.430800000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>58254.661639</v>
+        <v>58254.661638999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>16.181850</v>
+        <v>16.181850000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1237.510000</v>
+        <v>1237.51</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.663000</v>
+        <v>-101.663</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>58265.726393</v>
+        <v>58265.726392999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>16.184924</v>
+        <v>16.184923999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1247.490000</v>
+        <v>1247.49</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.341000</v>
+        <v>-121.34099999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>58277.159706</v>
+        <v>58277.159705999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.188100</v>
+        <v>16.188099999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1256.000000</v>
+        <v>1256</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.061000</v>
+        <v>-139.06100000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>58288.226411</v>
+        <v>58288.226411000003</v>
       </c>
       <c r="BE26" s="1">
         <v>16.191174</v>
       </c>
       <c r="BF26" s="1">
-        <v>1296.580000</v>
+        <v>1296.58</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.791000</v>
+        <v>-221.791</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>58299.637904</v>
+        <v>58299.637904000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>16.194344</v>
+        <v>16.194344000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1367.430000</v>
+        <v>1367.43</v>
       </c>
       <c r="BL26" s="1">
-        <v>-358.936000</v>
+        <v>-358.93599999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>58311.171380</v>
+        <v>58311.17138</v>
       </c>
       <c r="BO26" s="1">
-        <v>16.197548</v>
+        <v>16.197548000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1483.840000</v>
+        <v>1483.84</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-581.192000</v>
+        <v>-581.19200000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>58322.336780</v>
+        <v>58322.336779999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.200649</v>
+        <v>16.200648999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1618.410000</v>
+        <v>1618.41</v>
       </c>
       <c r="BV26" s="1">
-        <v>-831.044000</v>
+        <v>-831.04399999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>58333.253230</v>
+        <v>58333.253230000002</v>
       </c>
       <c r="BY26" s="1">
         <v>16.203681</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1772.030000</v>
+        <v>1772.03</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1101.670000</v>
+        <v>-1101.67</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>58346.616941</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.207394</v>
+        <v>16.207394000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2191.680000</v>
+        <v>2191.6799999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1754.780000</v>
+        <v>-1754.78</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>